--- a/raw_data/20200818_saline/20200818_Sensor0_Test_4.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_4.xlsx
@@ -1,750 +1,1166 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02423198-BEBF-4A0A-B0C1-5C37F9DC2D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>2702.844501</v>
       </c>
       <c r="B2" s="1">
-        <v>0.750790</v>
+        <v>0.75078999999999996</v>
       </c>
       <c r="C2" s="1">
-        <v>899.700000</v>
+        <v>899.7</v>
       </c>
       <c r="D2" s="1">
-        <v>-196.467000</v>
+        <v>-196.46700000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>2713.539703</v>
+        <v>2713.5397029999999</v>
       </c>
       <c r="G2" s="1">
-        <v>0.753761</v>
+        <v>0.75376100000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>917.079000</v>
+        <v>917.07899999999995</v>
       </c>
       <c r="I2" s="1">
-        <v>-166.724000</v>
+        <v>-166.72399999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>2723.933864</v>
+        <v>2723.9338640000001</v>
       </c>
       <c r="L2" s="1">
-        <v>0.756648</v>
+        <v>0.75664799999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>940.048000</v>
+        <v>940.048</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.612000</v>
+        <v>-119.61199999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>2734.374935</v>
+        <v>2734.3749349999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.759549</v>
+        <v>0.75954900000000003</v>
       </c>
       <c r="R2" s="1">
-        <v>946.825000</v>
+        <v>946.82500000000005</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.902000</v>
+        <v>-103.902</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>2744.930052</v>
+        <v>2744.9300520000002</v>
       </c>
       <c r="V2" s="1">
-        <v>0.762481</v>
+        <v>0.76248099999999996</v>
       </c>
       <c r="W2" s="1">
-        <v>953.591000</v>
+        <v>953.59100000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.378400</v>
+        <v>-89.378399999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>2755.355918</v>
+        <v>2755.3559180000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.765377</v>
+        <v>0.76537699999999997</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.883000</v>
+        <v>960.88300000000004</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.801300</v>
+        <v>-79.801299999999998</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>2766.136960</v>
+        <v>2766.1369599999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>0.768371</v>
+        <v>0.76837100000000003</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.877000</v>
+        <v>965.87699999999995</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.196500</v>
+        <v>-79.1965</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>2776.610484</v>
+        <v>2776.6104839999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>0.771281</v>
+        <v>0.77128099999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.796000</v>
+        <v>973.79600000000005</v>
       </c>
       <c r="AM2" s="1">
-        <v>-86.609900</v>
+        <v>-86.609899999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>2786.917349</v>
+        <v>2786.9173489999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>0.774144</v>
+        <v>0.77414400000000005</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.964000</v>
+        <v>982.96400000000006</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.077000</v>
+        <v>-101.077</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>2797.515366</v>
+        <v>2797.5153660000001</v>
       </c>
       <c r="AU2" s="1">
         <v>0.777088</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.220000</v>
+        <v>994.22</v>
       </c>
       <c r="AW2" s="1">
-        <v>-122.025000</v>
+        <v>-122.02500000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>2808.295912</v>
       </c>
       <c r="AZ2" s="1">
-        <v>0.780082</v>
+        <v>0.78008200000000005</v>
       </c>
       <c r="BA2" s="1">
-        <v>1003.710000</v>
+        <v>1003.71</v>
       </c>
       <c r="BB2" s="1">
-        <v>-140.233000</v>
+        <v>-140.233</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>2818.875083</v>
+        <v>2818.8750829999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>0.783021</v>
+        <v>0.78302099999999997</v>
       </c>
       <c r="BF2" s="1">
-        <v>1048.110000</v>
+        <v>1048.1099999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.889000</v>
+        <v>-222.88900000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>2829.820332</v>
+        <v>2829.8203319999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>0.786061</v>
+        <v>0.78606100000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1125.610000</v>
+        <v>1125.6099999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-355.949000</v>
+        <v>-355.94900000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>2840.507598</v>
+        <v>2840.5075980000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>0.789030</v>
+        <v>0.78903000000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1254.270000</v>
+        <v>1254.27</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-561.958000</v>
+        <v>-561.95799999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>2850.954832</v>
+        <v>2850.9548319999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>0.791932</v>
+        <v>0.79193199999999997</v>
       </c>
       <c r="BU2" s="1">
-        <v>1399.230000</v>
+        <v>1399.23</v>
       </c>
       <c r="BV2" s="1">
-        <v>-782.250000</v>
+        <v>-782.25</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>2861.646888</v>
+        <v>2861.6468880000002</v>
       </c>
       <c r="BY2" s="1">
         <v>0.794902</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1558.220000</v>
+        <v>1558.22</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1011.340000</v>
+        <v>-1011.34</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>2872.568501</v>
+        <v>2872.5685010000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>0.797936</v>
+        <v>0.79793599999999998</v>
       </c>
       <c r="CE2" s="1">
-        <v>1959.800000</v>
+        <v>1959.8</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1546.540000</v>
+        <v>-1546.54</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>2703.542868</v>
       </c>
       <c r="B3" s="1">
-        <v>0.750984</v>
+        <v>0.75098399999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>899.672000</v>
+        <v>899.67200000000003</v>
       </c>
       <c r="D3" s="1">
-        <v>-196.262000</v>
+        <v>-196.262</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>2713.883429</v>
@@ -753,73 +1169,73 @@
         <v>0.753857</v>
       </c>
       <c r="H3" s="1">
-        <v>917.057000</v>
+        <v>917.05700000000002</v>
       </c>
       <c r="I3" s="1">
-        <v>-166.746000</v>
+        <v>-166.74600000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>2724.280594</v>
+        <v>2724.2805939999998</v>
       </c>
       <c r="L3" s="1">
         <v>0.756745</v>
       </c>
       <c r="M3" s="1">
-        <v>940.022000</v>
+        <v>940.02200000000005</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.660000</v>
+        <v>-119.66</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>2734.738747</v>
+        <v>2734.7387469999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.759650</v>
+        <v>0.75965000000000005</v>
       </c>
       <c r="R3" s="1">
-        <v>946.831000</v>
+        <v>946.83100000000002</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.911000</v>
+        <v>-103.911</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>2745.593659</v>
+        <v>2745.5936590000001</v>
       </c>
       <c r="V3" s="1">
-        <v>0.762665</v>
+        <v>0.76266500000000004</v>
       </c>
       <c r="W3" s="1">
-        <v>953.533000</v>
+        <v>953.53300000000002</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.421000</v>
+        <v>-89.421000000000006</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>2756.050318</v>
+        <v>2756.0503180000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>0.765570</v>
+        <v>0.76556999999999997</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.882000</v>
+        <v>960.88199999999995</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.740800</v>
+        <v>-79.740799999999993</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>2766.549137</v>
@@ -828,58 +1244,58 @@
         <v>0.768486</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.861000</v>
+        <v>965.86099999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.214900</v>
+        <v>-79.2149</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>2777.018230</v>
+        <v>2777.0182300000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>0.771394</v>
+        <v>0.77139400000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.800000</v>
+        <v>973.8</v>
       </c>
       <c r="AM3" s="1">
-        <v>-86.591600</v>
+        <v>-86.5916</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>2787.277476</v>
+        <v>2787.2774760000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>0.774244</v>
+        <v>0.77424400000000004</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.965000</v>
+        <v>982.96500000000003</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.073000</v>
+        <v>-101.07299999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>2797.913654</v>
       </c>
       <c r="AU3" s="1">
-        <v>0.777198</v>
+        <v>0.77719800000000006</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.221000</v>
+        <v>994.221</v>
       </c>
       <c r="AW3" s="1">
-        <v>-122.006000</v>
+        <v>-122.006</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>2808.690728</v>
@@ -888,694 +1304,694 @@
         <v>0.780192</v>
       </c>
       <c r="BA3" s="1">
-        <v>1003.720000</v>
+        <v>1003.72</v>
       </c>
       <c r="BB3" s="1">
-        <v>-140.243000</v>
+        <v>-140.24299999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>2819.284107</v>
+        <v>2819.2841069999999</v>
       </c>
       <c r="BE3" s="1">
         <v>0.783134</v>
       </c>
       <c r="BF3" s="1">
-        <v>1048.110000</v>
+        <v>1048.1099999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-222.888000</v>
+        <v>-222.88800000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>2829.929420</v>
+        <v>2829.9294199999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>0.786092</v>
+        <v>0.78609200000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1125.650000</v>
+        <v>1125.6500000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-355.946000</v>
+        <v>-355.94600000000003</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>2840.615473</v>
+        <v>2840.6154729999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>0.789060</v>
+        <v>0.78905999999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1254.240000</v>
+        <v>1254.24</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-562.039000</v>
+        <v>-562.03899999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>2851.396272</v>
       </c>
       <c r="BT3" s="1">
-        <v>0.792055</v>
+        <v>0.79205499999999995</v>
       </c>
       <c r="BU3" s="1">
-        <v>1399.310000</v>
+        <v>1399.31</v>
       </c>
       <c r="BV3" s="1">
-        <v>-782.403000</v>
+        <v>-782.40300000000002</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>2862.110881</v>
+        <v>2862.1108810000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>0.795031</v>
+        <v>0.79503100000000004</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1558.160000</v>
+        <v>1558.16</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1011.250000</v>
+        <v>-1011.25</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>2873.133452</v>
       </c>
       <c r="CD3" s="1">
-        <v>0.798093</v>
+        <v>0.79809300000000005</v>
       </c>
       <c r="CE3" s="1">
-        <v>1959.440000</v>
+        <v>1959.44</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1546.420000</v>
+        <v>-1546.42</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>2703.883587</v>
+        <v>2703.8835869999998</v>
       </c>
       <c r="B4" s="1">
-        <v>0.751079</v>
+        <v>0.75107900000000005</v>
       </c>
       <c r="C4" s="1">
-        <v>899.645000</v>
+        <v>899.64499999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>-196.437000</v>
+        <v>-196.43700000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>2714.231157</v>
+        <v>2714.2311570000002</v>
       </c>
       <c r="G4" s="1">
-        <v>0.753953</v>
+        <v>0.75395299999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>917.325000</v>
+        <v>917.32500000000005</v>
       </c>
       <c r="I4" s="1">
-        <v>-166.747000</v>
+        <v>-166.74700000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>2724.630743</v>
+        <v>2724.6307430000002</v>
       </c>
       <c r="L4" s="1">
-        <v>0.756842</v>
+        <v>0.75684200000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>939.948000</v>
+        <v>939.94799999999998</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.545000</v>
+        <v>-119.545</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>2735.399914</v>
+        <v>2735.3999140000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.759833</v>
+        <v>0.75983299999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>946.810000</v>
+        <v>946.81</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.962000</v>
+        <v>-103.962</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>2745.977098</v>
+        <v>2745.9770979999998</v>
       </c>
       <c r="V4" s="1">
-        <v>0.762771</v>
+        <v>0.76277099999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>953.619000</v>
+        <v>953.61900000000003</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.358300</v>
+        <v>-89.3583</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>2756.439912</v>
+        <v>2756.4399119999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>0.765678</v>
+        <v>0.76567799999999997</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.868000</v>
+        <v>960.86800000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.778700</v>
+        <v>-79.778700000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>2766.891408</v>
       </c>
       <c r="AF4" s="1">
-        <v>0.768581</v>
+        <v>0.76858099999999996</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.856000</v>
+        <v>965.85599999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.181600</v>
+        <v>-79.181600000000003</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>2777.364899</v>
+        <v>2777.3648990000002</v>
       </c>
       <c r="AK4" s="1">
-        <v>0.771490</v>
+        <v>0.77149000000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.787000</v>
+        <v>973.78700000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-86.596200</v>
+        <v>-86.596199999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>2787.640020</v>
+        <v>2787.6400199999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>0.774344</v>
+        <v>0.77434400000000003</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.963000</v>
+        <v>982.96299999999997</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.080000</v>
+        <v>-101.08</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>2798.335255</v>
       </c>
       <c r="AU4" s="1">
-        <v>0.777315</v>
+        <v>0.77731499999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.231000</v>
+        <v>994.23099999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-122.005000</v>
+        <v>-122.005</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>2809.109352</v>
+        <v>2809.1093519999999</v>
       </c>
       <c r="AZ4" s="1">
         <v>0.780308</v>
       </c>
       <c r="BA4" s="1">
-        <v>1003.740000</v>
+        <v>1003.74</v>
       </c>
       <c r="BB4" s="1">
-        <v>-140.245000</v>
+        <v>-140.245</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>2819.615626</v>
+        <v>2819.6156259999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>0.783227</v>
+        <v>0.78322700000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1048.110000</v>
+        <v>1048.1099999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.910000</v>
+        <v>-222.91</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>2830.291035</v>
+        <v>2830.2910350000002</v>
       </c>
       <c r="BJ4" s="1">
         <v>0.786192</v>
       </c>
       <c r="BK4" s="1">
-        <v>1125.630000</v>
+        <v>1125.6300000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-355.922000</v>
+        <v>-355.92200000000003</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>2841.043773</v>
+        <v>2841.0437729999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>0.789179</v>
+        <v>0.78917899999999996</v>
       </c>
       <c r="BP4" s="1">
-        <v>1254.200000</v>
+        <v>1254.2</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-562.029000</v>
+        <v>-562.029</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>2851.834735</v>
+        <v>2851.8347349999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>0.792176</v>
+        <v>0.79217599999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1399.260000</v>
+        <v>1399.26</v>
       </c>
       <c r="BV4" s="1">
-        <v>-782.376000</v>
+        <v>-782.37599999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>2862.559233</v>
+        <v>2862.5592329999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>0.795155</v>
+        <v>0.79515499999999995</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1558.140000</v>
+        <v>1558.14</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1011.230000</v>
+        <v>-1011.23</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>2873.654770</v>
+        <v>2873.6547700000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>0.798237</v>
+        <v>0.79823699999999997</v>
       </c>
       <c r="CE4" s="1">
-        <v>1960.660000</v>
+        <v>1960.66</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1545.520000</v>
+        <v>-1545.52</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>2704.230322</v>
+        <v>2704.2303219999999</v>
       </c>
       <c r="B5" s="1">
-        <v>0.751175</v>
+        <v>0.75117500000000004</v>
       </c>
       <c r="C5" s="1">
-        <v>899.646000</v>
+        <v>899.64599999999996</v>
       </c>
       <c r="D5" s="1">
-        <v>-196.246000</v>
+        <v>-196.24600000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>2714.876916</v>
+        <v>2714.8769160000002</v>
       </c>
       <c r="G5" s="1">
-        <v>0.754132</v>
+        <v>0.75413200000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>916.910000</v>
+        <v>916.91</v>
       </c>
       <c r="I5" s="1">
-        <v>-166.778000</v>
+        <v>-166.77799999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>2725.297862</v>
+        <v>2725.2978619999999</v>
       </c>
       <c r="L5" s="1">
-        <v>0.757027</v>
+        <v>0.75702700000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>940.002000</v>
+        <v>940.00199999999995</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.398000</v>
+        <v>-119.398</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>2735.784809</v>
+        <v>2735.7848090000002</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.759940</v>
+        <v>0.75993999999999995</v>
       </c>
       <c r="R5" s="1">
-        <v>946.864000</v>
+        <v>946.86400000000003</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.499000</v>
+        <v>-103.499</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>2746.319830</v>
+        <v>2746.3198299999999</v>
       </c>
       <c r="V5" s="1">
-        <v>0.762867</v>
+        <v>0.76286699999999996</v>
       </c>
       <c r="W5" s="1">
-        <v>953.603000</v>
+        <v>953.60299999999995</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.380500</v>
+        <v>-89.380499999999998</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>2756.789564</v>
+        <v>2756.7895640000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.765775</v>
+        <v>0.76577499999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.906000</v>
+        <v>960.90599999999995</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.756400</v>
+        <v>-79.756399999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>2767.237583</v>
+        <v>2767.2375830000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>0.768677</v>
+        <v>0.76867700000000005</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.853000</v>
+        <v>965.85299999999995</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.230600</v>
+        <v>-79.230599999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>2777.776577</v>
+        <v>2777.7765770000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>0.771605</v>
+        <v>0.77160499999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.800000</v>
+        <v>973.8</v>
       </c>
       <c r="AM5" s="1">
-        <v>-86.637900</v>
+        <v>-86.637900000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>2788.052195</v>
+        <v>2788.0521950000002</v>
       </c>
       <c r="AP5" s="1">
-        <v>0.774459</v>
+        <v>0.77445900000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.930000</v>
+        <v>982.93</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.080000</v>
+        <v>-101.08</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>2798.643765</v>
+        <v>2798.6437649999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>0.777401</v>
+        <v>0.77740100000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.238000</v>
+        <v>994.23800000000006</v>
       </c>
       <c r="AW5" s="1">
-        <v>-122.016000</v>
+        <v>-122.01600000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>2809.476887</v>
+        <v>2809.4768869999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0.780410</v>
+        <v>0.78041000000000005</v>
       </c>
       <c r="BA5" s="1">
-        <v>1003.740000</v>
+        <v>1003.74</v>
       </c>
       <c r="BB5" s="1">
-        <v>-140.274000</v>
+        <v>-140.274</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>2819.973225</v>
+        <v>2819.9732250000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>0.783326</v>
+        <v>0.78332599999999997</v>
       </c>
       <c r="BF5" s="1">
-        <v>1048.110000</v>
+        <v>1048.1099999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-222.908000</v>
+        <v>-222.90799999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>2830.663532</v>
       </c>
       <c r="BJ5" s="1">
-        <v>0.786295</v>
+        <v>0.78629499999999997</v>
       </c>
       <c r="BK5" s="1">
-        <v>1125.640000</v>
+        <v>1125.6400000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-355.950000</v>
+        <v>-355.95</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>2841.443090</v>
+        <v>2841.4430900000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>0.789290</v>
+        <v>0.78929000000000005</v>
       </c>
       <c r="BP5" s="1">
-        <v>1254.200000</v>
+        <v>1254.2</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-562.043000</v>
+        <v>-562.04300000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>2852.259807</v>
+        <v>2852.2598069999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>0.792294</v>
+        <v>0.79229400000000005</v>
       </c>
       <c r="BU5" s="1">
-        <v>1399.130000</v>
+        <v>1399.13</v>
       </c>
       <c r="BV5" s="1">
-        <v>-782.460000</v>
+        <v>-782.46</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>2862.988273</v>
+        <v>2862.9882729999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>0.795275</v>
+        <v>0.79527499999999995</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1558.110000</v>
+        <v>1558.11</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1011.380000</v>
+        <v>-1011.38</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>2874.171569</v>
+        <v>2874.1715690000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>0.798381</v>
+        <v>0.79838100000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1959.420000</v>
+        <v>1959.42</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1544.770000</v>
+        <v>-1544.77</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>2704.872642</v>
+        <v>2704.8726419999998</v>
       </c>
       <c r="B6" s="1">
-        <v>0.751354</v>
+        <v>0.75135399999999997</v>
       </c>
       <c r="C6" s="1">
-        <v>899.792000</v>
+        <v>899.79200000000003</v>
       </c>
       <c r="D6" s="1">
-        <v>-196.292000</v>
+        <v>-196.292</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>2715.259332</v>
+        <v>2715.2593320000001</v>
       </c>
       <c r="G6" s="1">
-        <v>0.754239</v>
+        <v>0.75423899999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>917.131000</v>
+        <v>917.13099999999997</v>
       </c>
       <c r="I6" s="1">
-        <v>-166.741000</v>
+        <v>-166.74100000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>2725.665930</v>
+        <v>2725.6659300000001</v>
       </c>
       <c r="L6" s="1">
-        <v>0.757129</v>
+        <v>0.75712900000000005</v>
       </c>
       <c r="M6" s="1">
-        <v>940.144000</v>
+        <v>940.14400000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.315000</v>
+        <v>-119.315</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>2736.132472</v>
+        <v>2736.1324719999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.760037</v>
+        <v>0.76003699999999996</v>
       </c>
       <c r="R6" s="1">
-        <v>947.114000</v>
+        <v>947.11400000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.114000</v>
+        <v>-103.114</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>2746.663034</v>
+        <v>2746.6630340000002</v>
       </c>
       <c r="V6" s="1">
-        <v>0.762962</v>
+        <v>0.76296200000000003</v>
       </c>
       <c r="W6" s="1">
-        <v>953.624000</v>
+        <v>953.62400000000002</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.423800</v>
+        <v>-89.4238</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>2757.139416</v>
@@ -1584,512 +2000,512 @@
         <v>0.765872</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.865000</v>
+        <v>960.86500000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.847100</v>
+        <v>-79.847099999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>2767.657198</v>
+        <v>2767.6571979999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>0.768794</v>
+        <v>0.76879399999999998</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.844000</v>
+        <v>965.84400000000005</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.204200</v>
+        <v>-79.2042</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>2778.061777</v>
+        <v>2778.0617769999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>0.771684</v>
+        <v>0.77168400000000004</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.796000</v>
+        <v>973.79600000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-86.608400</v>
+        <v>-86.608400000000003</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>2788.359219</v>
+        <v>2788.3592189999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>0.774544</v>
+        <v>0.77454400000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.932000</v>
+        <v>982.93200000000002</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.065000</v>
+        <v>-101.065</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>2799.006372</v>
+        <v>2799.0063719999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>0.777502</v>
+        <v>0.77750200000000003</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.217000</v>
+        <v>994.21699999999998</v>
       </c>
       <c r="AW6" s="1">
-        <v>-122.023000</v>
+        <v>-122.023</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>2809.799819</v>
+        <v>2809.7998189999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0.780500</v>
+        <v>0.78049999999999997</v>
       </c>
       <c r="BA6" s="1">
-        <v>1003.740000</v>
+        <v>1003.74</v>
       </c>
       <c r="BB6" s="1">
-        <v>-140.242000</v>
+        <v>-140.24199999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>2820.334810</v>
+        <v>2820.3348099999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>0.783426</v>
+        <v>0.78342599999999996</v>
       </c>
       <c r="BF6" s="1">
-        <v>1048.120000</v>
+        <v>1048.1199999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.899000</v>
+        <v>-222.899</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>2831.415434</v>
       </c>
       <c r="BJ6" s="1">
-        <v>0.786504</v>
+        <v>0.78650399999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1125.620000</v>
+        <v>1125.6199999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-355.943000</v>
+        <v>-355.94299999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>2841.869116</v>
+        <v>2841.8691159999998</v>
       </c>
       <c r="BO6" s="1">
         <v>0.789408</v>
       </c>
       <c r="BP6" s="1">
-        <v>1254.220000</v>
+        <v>1254.22</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-562.048000</v>
+        <v>-562.048</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>2852.671982</v>
+        <v>2852.6719819999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>0.792409</v>
+        <v>0.79240900000000003</v>
       </c>
       <c r="BU6" s="1">
-        <v>1398.980000</v>
+        <v>1398.98</v>
       </c>
       <c r="BV6" s="1">
-        <v>-782.450000</v>
+        <v>-782.45</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>2863.409376</v>
+        <v>2863.4093760000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>0.795391</v>
+        <v>0.79539099999999996</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1558.230000</v>
+        <v>1558.23</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1011.340000</v>
+        <v>-1011.34</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>2874.693361</v>
+        <v>2874.6933610000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>0.798526</v>
+        <v>0.79852599999999996</v>
       </c>
       <c r="CE6" s="1">
-        <v>1958.530000</v>
+        <v>1958.53</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1546.210000</v>
+        <v>-1546.21</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>2705.255024</v>
       </c>
       <c r="B7" s="1">
-        <v>0.751460</v>
+        <v>0.75146000000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>899.594000</v>
+        <v>899.59400000000005</v>
       </c>
       <c r="D7" s="1">
-        <v>-196.399000</v>
+        <v>-196.399</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>2715.608515</v>
+        <v>2715.6085149999999</v>
       </c>
       <c r="G7" s="1">
-        <v>0.754336</v>
+        <v>0.75433600000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>917.010000</v>
+        <v>917.01</v>
       </c>
       <c r="I7" s="1">
-        <v>-166.761000</v>
+        <v>-166.761</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>2726.013589</v>
+        <v>2726.0135890000001</v>
       </c>
       <c r="L7" s="1">
-        <v>0.757226</v>
+        <v>0.75722599999999995</v>
       </c>
       <c r="M7" s="1">
-        <v>940.349000</v>
+        <v>940.34900000000005</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.262000</v>
+        <v>-119.262</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>2736.482647</v>
+        <v>2736.4826469999998</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.760134</v>
+        <v>0.76013399999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>947.099000</v>
+        <v>947.09900000000005</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.113000</v>
+        <v>-103.113</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>2747.063305</v>
+        <v>2747.0633050000001</v>
       </c>
       <c r="V7" s="1">
         <v>0.763073</v>
       </c>
       <c r="W7" s="1">
-        <v>953.561000</v>
+        <v>953.56100000000004</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.333600</v>
+        <v>-89.333600000000004</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>2757.552238</v>
+        <v>2757.5522380000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.765987</v>
+        <v>0.76598699999999997</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.767000</v>
+        <v>960.76700000000005</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.711200</v>
+        <v>-79.711200000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>2767.931486</v>
+        <v>2767.9314859999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.768870</v>
+        <v>0.76887000000000005</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.902000</v>
+        <v>965.90200000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.208200</v>
+        <v>-79.208200000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>2778.410464</v>
       </c>
       <c r="AK7" s="1">
-        <v>0.771781</v>
+        <v>0.77178100000000005</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.821000</v>
+        <v>973.82100000000003</v>
       </c>
       <c r="AM7" s="1">
-        <v>-86.591000</v>
+        <v>-86.590999999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>2788.721794</v>
       </c>
       <c r="AP7" s="1">
-        <v>0.774645</v>
+        <v>0.77464500000000003</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.962000</v>
+        <v>982.96199999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.073000</v>
+        <v>-101.07299999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>2799.368917</v>
+        <v>2799.3689169999998</v>
       </c>
       <c r="AU7" s="1">
-        <v>0.777602</v>
+        <v>0.77760200000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.223000</v>
+        <v>994.22299999999996</v>
       </c>
       <c r="AW7" s="1">
-        <v>-122.022000</v>
+        <v>-122.02200000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>2810.493190</v>
+        <v>2810.4931900000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>0.780693</v>
+        <v>0.78069299999999997</v>
       </c>
       <c r="BA7" s="1">
-        <v>1003.720000</v>
+        <v>1003.72</v>
       </c>
       <c r="BB7" s="1">
-        <v>-140.247000</v>
+        <v>-140.24700000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>2821.058995</v>
+        <v>2821.0589949999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>0.783627</v>
+        <v>0.78362699999999996</v>
       </c>
       <c r="BF7" s="1">
-        <v>1048.120000</v>
+        <v>1048.1199999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.906000</v>
+        <v>-222.90600000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>2831.790410</v>
+        <v>2831.7904100000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>0.786608</v>
+        <v>0.78660799999999997</v>
       </c>
       <c r="BK7" s="1">
-        <v>1125.650000</v>
+        <v>1125.6500000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-355.935000</v>
+        <v>-355.935</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>2842.269388</v>
+        <v>2842.2693880000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>0.789519</v>
+        <v>0.78951899999999997</v>
       </c>
       <c r="BP7" s="1">
-        <v>1254.230000</v>
+        <v>1254.23</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-562.086000</v>
+        <v>-562.08600000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>2853.101053</v>
+        <v>2853.1010529999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>0.792528</v>
+        <v>0.79252800000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1398.910000</v>
+        <v>1398.91</v>
       </c>
       <c r="BV7" s="1">
-        <v>-782.372000</v>
+        <v>-782.37199999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>2864.134558</v>
+        <v>2864.1345580000002</v>
       </c>
       <c r="BY7" s="1">
-        <v>0.795593</v>
+        <v>0.79559299999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1558.210000</v>
+        <v>1558.21</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1011.280000</v>
+        <v>-1011.28</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>2875.577233</v>
       </c>
       <c r="CD7" s="1">
-        <v>0.798771</v>
+        <v>0.79877100000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1960.210000</v>
+        <v>1960.21</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1546.780000</v>
+        <v>-1546.78</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>2705.601264</v>
+        <v>2705.6012639999999</v>
       </c>
       <c r="B8" s="1">
         <v>0.751556</v>
       </c>
       <c r="C8" s="1">
-        <v>899.598000</v>
+        <v>899.59799999999996</v>
       </c>
       <c r="D8" s="1">
-        <v>-196.468000</v>
+        <v>-196.46799999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>2715.951746</v>
+        <v>2715.9517460000002</v>
       </c>
       <c r="G8" s="1">
-        <v>0.754431</v>
+        <v>0.75443099999999996</v>
       </c>
       <c r="H8" s="1">
-        <v>917.152000</v>
+        <v>917.15200000000004</v>
       </c>
       <c r="I8" s="1">
-        <v>-166.734000</v>
+        <v>-166.73400000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>2726.562697</v>
+        <v>2726.5626969999998</v>
       </c>
       <c r="L8" s="1">
-        <v>0.757379</v>
+        <v>0.75737900000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>940.160000</v>
+        <v>940.16</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.367000</v>
+        <v>-119.367</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>2736.892375</v>
+        <v>2736.8923749999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.760248</v>
+        <v>0.76024800000000003</v>
       </c>
       <c r="R8" s="1">
-        <v>947.130000</v>
+        <v>947.13</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.104000</v>
+        <v>-103.104</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>2747.374017</v>
+        <v>2747.3740170000001</v>
       </c>
       <c r="V8" s="1">
-        <v>0.763159</v>
+        <v>0.76315900000000003</v>
       </c>
       <c r="W8" s="1">
-        <v>953.513000</v>
+        <v>953.51300000000003</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.428900</v>
+        <v>-89.428899999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>2757.835419</v>
@@ -2098,3127 +2514,3127 @@
         <v>0.766065</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.840000</v>
+        <v>960.84</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.824600</v>
+        <v>-79.824600000000004</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>2768.274717</v>
+        <v>2768.2747169999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.768965</v>
+        <v>0.76896500000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.857000</v>
+        <v>965.85699999999997</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.224500</v>
+        <v>-79.224500000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>2778.754354</v>
+        <v>2778.7543540000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>0.771876</v>
+        <v>0.77187600000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.805000</v>
+        <v>973.80499999999995</v>
       </c>
       <c r="AM8" s="1">
-        <v>-86.608800</v>
+        <v>-86.608800000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>2789.077949</v>
       </c>
       <c r="AP8" s="1">
-        <v>0.774744</v>
+        <v>0.77474399999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.950000</v>
+        <v>982.95</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.074000</v>
+        <v>-101.074</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>2800.105971</v>
       </c>
       <c r="AU8" s="1">
-        <v>0.777807</v>
+        <v>0.77780700000000003</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.230000</v>
+        <v>994.23</v>
       </c>
       <c r="AW8" s="1">
-        <v>-122.013000</v>
+        <v>-122.01300000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>2810.852293</v>
+        <v>2810.8522929999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0.780792</v>
+        <v>0.78079200000000004</v>
       </c>
       <c r="BA8" s="1">
-        <v>1003.720000</v>
+        <v>1003.72</v>
       </c>
       <c r="BB8" s="1">
-        <v>-140.253000</v>
+        <v>-140.25299999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>2821.416119</v>
       </c>
       <c r="BE8" s="1">
-        <v>0.783727</v>
+        <v>0.78372699999999995</v>
       </c>
       <c r="BF8" s="1">
-        <v>1048.130000</v>
+        <v>1048.1300000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.887000</v>
+        <v>-222.887</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>2832.168393</v>
+        <v>2832.1683929999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>0.786713</v>
       </c>
       <c r="BK8" s="1">
-        <v>1125.630000</v>
+        <v>1125.6300000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-355.955000</v>
+        <v>-355.95499999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>2842.988091</v>
+        <v>2842.9880910000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>0.789719</v>
+        <v>0.78971899999999995</v>
       </c>
       <c r="BP8" s="1">
-        <v>1254.230000</v>
+        <v>1254.23</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-562.060000</v>
+        <v>-562.05999999999995</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>2853.832620</v>
+        <v>2853.8326200000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>0.792731</v>
+        <v>0.79273099999999996</v>
       </c>
       <c r="BU8" s="1">
-        <v>1398.860000</v>
+        <v>1398.86</v>
       </c>
       <c r="BV8" s="1">
-        <v>-782.410000</v>
+        <v>-782.41</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>2864.257535</v>
+        <v>2864.2575350000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>0.795627</v>
+        <v>0.79562699999999997</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1558.270000</v>
+        <v>1558.27</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1011.360000</v>
+        <v>-1011.36</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>2875.724074</v>
+        <v>2875.7240740000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>0.798812</v>
+        <v>0.79881199999999997</v>
       </c>
       <c r="CE8" s="1">
-        <v>1960.740000</v>
+        <v>1960.74</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1545.320000</v>
+        <v>-1545.32</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>2705.944997</v>
+        <v>2705.9449970000001</v>
       </c>
       <c r="B9" s="1">
-        <v>0.751651</v>
+        <v>0.75165099999999996</v>
       </c>
       <c r="C9" s="1">
-        <v>899.682000</v>
+        <v>899.68200000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-196.397000</v>
+        <v>-196.39699999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>2716.367395</v>
+        <v>2716.3673950000002</v>
       </c>
       <c r="G9" s="1">
-        <v>0.754546</v>
+        <v>0.75454600000000005</v>
       </c>
       <c r="H9" s="1">
-        <v>917.144000</v>
+        <v>917.14400000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-166.876000</v>
+        <v>-166.876</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>2726.703028</v>
+        <v>2726.7030279999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0.757418</v>
+        <v>0.75741800000000004</v>
       </c>
       <c r="M9" s="1">
-        <v>940.085000</v>
+        <v>940.08500000000004</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.335000</v>
+        <v>-119.33499999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>2737.183495</v>
+        <v>2737.1834950000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.760329</v>
+        <v>0.76032900000000003</v>
       </c>
       <c r="R9" s="1">
-        <v>947.133000</v>
+        <v>947.13300000000004</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.151000</v>
+        <v>-103.151</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>2747.718552</v>
+        <v>2747.7185519999998</v>
       </c>
       <c r="V9" s="1">
-        <v>0.763255</v>
+        <v>0.76325500000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>953.688000</v>
+        <v>953.68799999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.412100</v>
+        <v>-89.412099999999995</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>2758.187579</v>
+        <v>2758.1875789999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>0.766163</v>
+        <v>0.76616300000000004</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.956000</v>
+        <v>960.95600000000002</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.772600</v>
+        <v>-79.772599999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>2768.617454</v>
+        <v>2768.6174540000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>0.769060</v>
+        <v>0.76905999999999997</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.841000</v>
+        <v>965.84100000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.211000</v>
+        <v>-79.210999999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>2779.456031</v>
+        <v>2779.4560310000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>0.772071</v>
+        <v>0.77207099999999995</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.815000</v>
+        <v>973.81500000000005</v>
       </c>
       <c r="AM9" s="1">
-        <v>-86.604500</v>
+        <v>-86.604500000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>2789.806545</v>
+        <v>2789.8065449999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>0.774946</v>
+        <v>0.77494600000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.935000</v>
+        <v>982.93499999999995</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.082000</v>
+        <v>-101.08199999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>2800.488883</v>
       </c>
       <c r="AU9" s="1">
-        <v>0.777914</v>
+        <v>0.77791399999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.217000</v>
+        <v>994.21699999999998</v>
       </c>
       <c r="AW9" s="1">
-        <v>-122.012000</v>
+        <v>-122.012</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>2811.210932</v>
       </c>
       <c r="AZ9" s="1">
-        <v>0.780892</v>
+        <v>0.78089200000000003</v>
       </c>
       <c r="BA9" s="1">
-        <v>1003.710000</v>
+        <v>1003.71</v>
       </c>
       <c r="BB9" s="1">
-        <v>-140.234000</v>
+        <v>-140.23400000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>2821.778167</v>
+        <v>2821.7781669999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>0.783827</v>
+        <v>0.78382700000000005</v>
       </c>
       <c r="BF9" s="1">
-        <v>1048.100000</v>
+        <v>1048.0999999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.897000</v>
+        <v>-222.89699999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>2832.842920</v>
+        <v>2832.84292</v>
       </c>
       <c r="BJ9" s="1">
-        <v>0.786901</v>
+        <v>0.78690099999999996</v>
       </c>
       <c r="BK9" s="1">
-        <v>1125.640000</v>
+        <v>1125.6400000000001</v>
       </c>
       <c r="BL9" s="1">
-        <v>-355.926000</v>
+        <v>-355.92599999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>2843.498972</v>
+        <v>2843.4989719999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>0.789861</v>
+        <v>0.78986100000000004</v>
       </c>
       <c r="BP9" s="1">
-        <v>1254.240000</v>
+        <v>1254.24</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-562.059000</v>
+        <v>-562.05899999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>2853.977983</v>
+        <v>2853.9779830000002</v>
       </c>
       <c r="BT9" s="1">
-        <v>0.792772</v>
+        <v>0.79277200000000003</v>
       </c>
       <c r="BU9" s="1">
-        <v>1398.770000</v>
+        <v>1398.77</v>
       </c>
       <c r="BV9" s="1">
-        <v>-782.325000</v>
+        <v>-782.32500000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>2864.704431</v>
+        <v>2864.7044310000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>0.795751</v>
+        <v>0.79575099999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1558.090000</v>
+        <v>1558.09</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1011.410000</v>
+        <v>-1011.41</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>2876.240880</v>
+        <v>2876.2408799999998</v>
       </c>
       <c r="CD9" s="1">
         <v>0.798956</v>
       </c>
       <c r="CE9" s="1">
-        <v>1960.770000</v>
+        <v>1960.77</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1545.010000</v>
+        <v>-1545.01</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>2706.366096</v>
+        <v>2706.3660960000002</v>
       </c>
       <c r="B10" s="1">
-        <v>0.751768</v>
+        <v>0.75176799999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>899.912000</v>
+        <v>899.91200000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>-196.505000</v>
+        <v>-196.505</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>2716.664995</v>
+        <v>2716.6649950000001</v>
       </c>
       <c r="G10" s="1">
-        <v>0.754629</v>
+        <v>0.75462899999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>917.132000</v>
+        <v>917.13199999999995</v>
       </c>
       <c r="I10" s="1">
-        <v>-166.727000</v>
+        <v>-166.727</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>2727.049236</v>
+        <v>2727.0492359999998</v>
       </c>
       <c r="L10" s="1">
-        <v>0.757514</v>
+        <v>0.75751400000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>940.170000</v>
+        <v>940.17</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.210000</v>
+        <v>-119.21</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>2737.530695</v>
+        <v>2737.5306949999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.760425</v>
+        <v>0.76042500000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>947.126000</v>
+        <v>947.12599999999998</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.149000</v>
+        <v>-103.149</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>2748.062744</v>
+        <v>2748.0627439999998</v>
       </c>
       <c r="V10" s="1">
         <v>0.763351</v>
       </c>
       <c r="W10" s="1">
-        <v>953.577000</v>
+        <v>953.577</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.390200</v>
+        <v>-89.390199999999993</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>2758.538747</v>
+        <v>2758.5387470000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.766261</v>
+        <v>0.76626099999999997</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.948000</v>
+        <v>960.94799999999998</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.773000</v>
+        <v>-79.772999999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>2769.308908</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.769252</v>
+        <v>0.76925200000000005</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.889000</v>
+        <v>965.88900000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.182400</v>
+        <v>-79.182400000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>2779.804222</v>
+        <v>2779.8042220000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.772168</v>
+        <v>0.77216799999999997</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.788000</v>
+        <v>973.78800000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-86.621600</v>
+        <v>-86.621600000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>2790.184496</v>
+        <v>2790.1844959999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>0.775051</v>
+        <v>0.77505100000000005</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.929000</v>
+        <v>982.92899999999997</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.078000</v>
+        <v>-101.078</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>2800.850466</v>
+        <v>2800.8504659999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>0.778014</v>
+        <v>0.77801399999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.240000</v>
+        <v>994.24</v>
       </c>
       <c r="AW10" s="1">
-        <v>-122.020000</v>
+        <v>-122.02</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>2811.871572</v>
       </c>
       <c r="AZ10" s="1">
-        <v>0.781075</v>
+        <v>0.78107499999999996</v>
       </c>
       <c r="BA10" s="1">
-        <v>1003.740000</v>
+        <v>1003.74</v>
       </c>
       <c r="BB10" s="1">
-        <v>-140.243000</v>
+        <v>-140.24299999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>2822.440852</v>
+        <v>2822.4408520000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>0.784011</v>
+        <v>0.78401100000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1048.110000</v>
+        <v>1048.1099999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.875000</v>
+        <v>-222.875</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>2832.952040</v>
+        <v>2832.9520400000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>0.786931</v>
+        <v>0.78693100000000005</v>
       </c>
       <c r="BK10" s="1">
-        <v>1125.640000</v>
+        <v>1125.6400000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-355.934000</v>
+        <v>-355.93400000000003</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>2843.915184</v>
       </c>
       <c r="BO10" s="1">
-        <v>0.789976</v>
+        <v>0.78997600000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1254.220000</v>
+        <v>1254.22</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-562.076000</v>
+        <v>-562.07600000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>2854.388667</v>
+        <v>2854.3886670000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>0.792886</v>
+        <v>0.79288599999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1398.630000</v>
+        <v>1398.63</v>
       </c>
       <c r="BV10" s="1">
-        <v>-782.247000</v>
+        <v>-782.24699999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>2865.138462</v>
+        <v>2865.1384619999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>0.795872</v>
+        <v>0.79587200000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1558.220000</v>
+        <v>1558.22</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1011.430000</v>
+        <v>-1011.43</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>2876.802351</v>
+        <v>2876.8023509999998</v>
       </c>
       <c r="CD10" s="1">
-        <v>0.799112</v>
+        <v>0.79911200000000004</v>
       </c>
       <c r="CE10" s="1">
-        <v>1960.760000</v>
+        <v>1960.76</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1546.110000</v>
+        <v>-1546.11</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>2706.646799</v>
+        <v>2706.6467990000001</v>
       </c>
       <c r="B11" s="1">
-        <v>0.751846</v>
+        <v>0.75184600000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>899.863000</v>
+        <v>899.86300000000006</v>
       </c>
       <c r="D11" s="1">
-        <v>-196.214000</v>
+        <v>-196.214</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>2717.007729</v>
+        <v>2717.0077289999999</v>
       </c>
       <c r="G11" s="1">
-        <v>0.754724</v>
+        <v>0.75472399999999995</v>
       </c>
       <c r="H11" s="1">
-        <v>917.167000</v>
+        <v>917.16700000000003</v>
       </c>
       <c r="I11" s="1">
-        <v>-166.606000</v>
+        <v>-166.60599999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>2727.393956</v>
+        <v>2727.3939559999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0.757609</v>
+        <v>0.75760899999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>940.084000</v>
+        <v>940.08399999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.275000</v>
+        <v>-119.27500000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>2737.880373</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.760522</v>
+        <v>0.76052200000000003</v>
       </c>
       <c r="R11" s="1">
-        <v>947.063000</v>
+        <v>947.06299999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.118000</v>
+        <v>-103.11799999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>2748.748711</v>
+        <v>2748.7487110000002</v>
       </c>
       <c r="V11" s="1">
-        <v>0.763541</v>
+        <v>0.76354100000000003</v>
       </c>
       <c r="W11" s="1">
-        <v>953.609000</v>
+        <v>953.60900000000004</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.403700</v>
+        <v>-89.403700000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>2759.236158</v>
+        <v>2759.2361580000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.766454</v>
+        <v>0.76645399999999997</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.946000</v>
+        <v>960.94600000000003</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.766600</v>
+        <v>-79.766599999999997</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>2769.647147</v>
+        <v>2769.6471470000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.769346</v>
+        <v>0.76934599999999997</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.850000</v>
+        <v>965.85</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.173300</v>
+        <v>-79.173299999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>2780.154091</v>
+        <v>2780.1540909999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>0.772265</v>
+        <v>0.77226499999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.805000</v>
+        <v>973.80499999999995</v>
       </c>
       <c r="AM11" s="1">
-        <v>-86.594600</v>
+        <v>-86.5946</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>2790.549056</v>
+        <v>2790.5490559999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>0.775153</v>
+        <v>0.77515299999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.959000</v>
+        <v>982.95899999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.071000</v>
+        <v>-101.071</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>2801.518914</v>
+        <v>2801.5189140000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>0.778200</v>
+        <v>0.7782</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.243000</v>
+        <v>994.24300000000005</v>
       </c>
       <c r="AW11" s="1">
-        <v>-122.025000</v>
+        <v>-122.02500000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>2812.314003</v>
       </c>
       <c r="AZ11" s="1">
-        <v>0.781198</v>
+        <v>0.78119799999999995</v>
       </c>
       <c r="BA11" s="1">
-        <v>1003.730000</v>
+        <v>1003.73</v>
       </c>
       <c r="BB11" s="1">
-        <v>-140.222000</v>
+        <v>-140.22200000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>2822.897175</v>
+        <v>2822.8971750000001</v>
       </c>
       <c r="BE11" s="1">
         <v>0.784138</v>
       </c>
       <c r="BF11" s="1">
-        <v>1048.120000</v>
+        <v>1048.1199999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.899000</v>
+        <v>-222.899</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>2833.324039</v>
+        <v>2833.3240390000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>0.787034</v>
+        <v>0.78703400000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1125.630000</v>
+        <v>1125.6300000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-355.956000</v>
+        <v>-355.95600000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>2844.315083</v>
       </c>
       <c r="BO11" s="1">
-        <v>0.790088</v>
+        <v>0.79008800000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1254.220000</v>
+        <v>1254.22</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-562.088000</v>
+        <v>-562.08799999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>2854.815196</v>
       </c>
       <c r="BT11" s="1">
-        <v>0.793004</v>
+        <v>0.79300400000000004</v>
       </c>
       <c r="BU11" s="1">
-        <v>1398.750000</v>
+        <v>1398.75</v>
       </c>
       <c r="BV11" s="1">
-        <v>-782.178000</v>
+        <v>-782.178</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>2865.559069</v>
+        <v>2865.5590689999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>0.795989</v>
+        <v>0.79598899999999995</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1558.190000</v>
+        <v>1558.19</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1011.300000</v>
+        <v>-1011.3</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>2877.321166</v>
+        <v>2877.3211660000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>0.799256</v>
+        <v>0.79925599999999997</v>
       </c>
       <c r="CE11" s="1">
-        <v>1959.830000</v>
+        <v>1959.83</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1544.670000</v>
+        <v>-1544.67</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>2706.986063</v>
+        <v>2706.9860629999998</v>
       </c>
       <c r="B12" s="1">
-        <v>0.751941</v>
+        <v>0.75194099999999997</v>
       </c>
       <c r="C12" s="1">
-        <v>899.720000</v>
+        <v>899.72</v>
       </c>
       <c r="D12" s="1">
-        <v>-196.516000</v>
+        <v>-196.51599999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>2717.350992</v>
+        <v>2717.3509920000001</v>
       </c>
       <c r="G12" s="1">
-        <v>0.754820</v>
+        <v>0.75482000000000005</v>
       </c>
       <c r="H12" s="1">
-        <v>917.168000</v>
+        <v>917.16800000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-166.617000</v>
+        <v>-166.61699999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>2728.084882</v>
+        <v>2728.0848820000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0.757801</v>
+        <v>0.75780099999999995</v>
       </c>
       <c r="M12" s="1">
-        <v>940.159000</v>
+        <v>940.15899999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.427000</v>
+        <v>-119.42700000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>2738.574687</v>
+        <v>2738.5746869999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.760715</v>
+        <v>0.76071500000000003</v>
       </c>
       <c r="R12" s="1">
-        <v>947.080000</v>
+        <v>947.08</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.114000</v>
+        <v>-103.114</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>2749.090951</v>
+        <v>2749.0909510000001</v>
       </c>
       <c r="V12" s="1">
-        <v>0.763636</v>
+        <v>0.76363599999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>953.613000</v>
+        <v>953.61300000000006</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.365300</v>
+        <v>-89.365300000000005</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>2759.579849</v>
+        <v>2759.5798490000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>0.766550</v>
+        <v>0.76654999999999995</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.878000</v>
+        <v>960.87800000000004</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.809700</v>
+        <v>-79.809700000000007</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>2769.995339</v>
+        <v>2769.9953390000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.769443</v>
+        <v>0.76944299999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.881000</v>
+        <v>965.88099999999997</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.189200</v>
+        <v>-79.1892</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>2780.800685</v>
+        <v>2780.8006850000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>0.772445</v>
+        <v>0.77244500000000005</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.794000</v>
+        <v>973.79399999999998</v>
       </c>
       <c r="AM12" s="1">
-        <v>-86.587300</v>
+        <v>-86.587299999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>2791.211216</v>
+        <v>2791.2112160000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>0.775336</v>
+        <v>0.77533600000000003</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.950000</v>
+        <v>982.95</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.059000</v>
+        <v>-101.059</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>2801.981371</v>
+        <v>2801.9813709999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>0.778328</v>
+        <v>0.77832800000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.234000</v>
+        <v>994.23400000000004</v>
       </c>
       <c r="AW12" s="1">
-        <v>-122.009000</v>
+        <v>-122.009</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>2812.672146</v>
+        <v>2812.6721459999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>0.781298</v>
+        <v>0.78129800000000005</v>
       </c>
       <c r="BA12" s="1">
-        <v>1003.720000</v>
+        <v>1003.72</v>
       </c>
       <c r="BB12" s="1">
-        <v>-140.260000</v>
+        <v>-140.26</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>2823.256245</v>
       </c>
       <c r="BE12" s="1">
-        <v>0.784238</v>
+        <v>0.78423799999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1048.130000</v>
+        <v>1048.1300000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.911000</v>
+        <v>-222.911</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>2833.700503</v>
       </c>
       <c r="BJ12" s="1">
-        <v>0.787139</v>
+        <v>0.78713900000000003</v>
       </c>
       <c r="BK12" s="1">
-        <v>1125.610000</v>
+        <v>1125.6099999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-355.965000</v>
+        <v>-355.96499999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>2844.735002</v>
+        <v>2844.7350019999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>0.790204</v>
+        <v>0.79020400000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1254.180000</v>
+        <v>1254.18</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-562.066000</v>
+        <v>-562.06600000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>2855.232331</v>
+        <v>2855.2323310000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>0.793120</v>
+        <v>0.79312000000000005</v>
       </c>
       <c r="BU12" s="1">
-        <v>1398.700000</v>
+        <v>1398.7</v>
       </c>
       <c r="BV12" s="1">
-        <v>-782.071000</v>
+        <v>-782.07100000000003</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>2865.981630</v>
+        <v>2865.9816300000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>0.796106</v>
+        <v>0.79610599999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1558.110000</v>
+        <v>1558.11</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1011.350000</v>
+        <v>-1011.35</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>2877.841470</v>
+        <v>2877.8414699999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>0.799400</v>
+        <v>0.7994</v>
       </c>
       <c r="CE12" s="1">
-        <v>1960.560000</v>
+        <v>1960.56</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1544.960000</v>
+        <v>-1544.96</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>2707.327316</v>
+        <v>2707.3273159999999</v>
       </c>
       <c r="B13" s="1">
-        <v>0.752035</v>
+        <v>0.75203500000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>899.824000</v>
+        <v>899.82399999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-196.373000</v>
+        <v>-196.37299999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>2718.038912</v>
       </c>
       <c r="G13" s="1">
-        <v>0.755011</v>
+        <v>0.75501099999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>917.333000</v>
+        <v>917.33299999999997</v>
       </c>
       <c r="I13" s="1">
-        <v>-166.655000</v>
+        <v>-166.655</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>2728.427651</v>
       </c>
       <c r="L13" s="1">
-        <v>0.757897</v>
+        <v>0.75789700000000004</v>
       </c>
       <c r="M13" s="1">
-        <v>940.119000</v>
+        <v>940.11900000000003</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.489000</v>
+        <v>-119.489</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>2738.926473</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.760813</v>
+        <v>0.76081299999999996</v>
       </c>
       <c r="R13" s="1">
-        <v>947.095000</v>
+        <v>947.09500000000003</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.096000</v>
+        <v>-103.096</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>2749.434679</v>
       </c>
       <c r="V13" s="1">
-        <v>0.763732</v>
+        <v>0.76373199999999997</v>
       </c>
       <c r="W13" s="1">
-        <v>953.572000</v>
+        <v>953.572</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.361600</v>
+        <v>-89.361599999999996</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>2760.226170</v>
+        <v>2760.2261699999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>0.766729</v>
+        <v>0.76672899999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.827000</v>
+        <v>960.827</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.776500</v>
+        <v>-79.776499999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>2770.646620</v>
+        <v>2770.64662</v>
       </c>
       <c r="AF13" s="1">
-        <v>0.769624</v>
+        <v>0.76962399999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.883000</v>
+        <v>965.88300000000004</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.192800</v>
+        <v>-79.192800000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>2781.199964</v>
+        <v>2781.1999639999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>0.772556</v>
+        <v>0.77255600000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.801000</v>
+        <v>973.80100000000004</v>
       </c>
       <c r="AM13" s="1">
-        <v>-86.593300</v>
+        <v>-86.593299999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>2791.626863</v>
       </c>
       <c r="AP13" s="1">
-        <v>0.775452</v>
+        <v>0.77545200000000003</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.949000</v>
+        <v>982.94899999999996</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.073000</v>
+        <v>-101.07299999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>2802.343424</v>
+        <v>2802.3434240000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>0.778429</v>
+        <v>0.77842900000000004</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.235000</v>
+        <v>994.23500000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-122.009000</v>
+        <v>-122.009</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>2813.034580</v>
+        <v>2813.03458</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0.781398</v>
+        <v>0.78139800000000004</v>
       </c>
       <c r="BA13" s="1">
-        <v>1003.720000</v>
+        <v>1003.72</v>
       </c>
       <c r="BB13" s="1">
-        <v>-140.241000</v>
+        <v>-140.24100000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>2823.617094</v>
+        <v>2823.6170940000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>0.784338</v>
+        <v>0.78433799999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1048.120000</v>
+        <v>1048.1199999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.886000</v>
+        <v>-222.886</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>2834.118136</v>
       </c>
       <c r="BJ13" s="1">
-        <v>0.787255</v>
+        <v>0.78725500000000004</v>
       </c>
       <c r="BK13" s="1">
-        <v>1125.630000</v>
+        <v>1125.6300000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-355.973000</v>
+        <v>-355.97300000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>2845.131305</v>
+        <v>2845.1313049999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>0.790314</v>
+        <v>0.79031399999999996</v>
       </c>
       <c r="BP13" s="1">
-        <v>1254.190000</v>
+        <v>1254.19</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-562.052000</v>
+        <v>-562.05200000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>2855.647357</v>
+        <v>2855.6473569999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>0.793235</v>
+        <v>0.79323500000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1398.700000</v>
+        <v>1398.7</v>
       </c>
       <c r="BV13" s="1">
-        <v>-782.033000</v>
+        <v>-782.03300000000002</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>2866.407204</v>
+        <v>2866.4072040000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>0.796224</v>
+        <v>0.79622400000000004</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1558.120000</v>
+        <v>1558.12</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1011.290000</v>
+        <v>-1011.29</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>2878.393020</v>
+        <v>2878.39302</v>
       </c>
       <c r="CD13" s="1">
-        <v>0.799554</v>
+        <v>0.79955399999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1961.040000</v>
+        <v>1961.04</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1546.130000</v>
+        <v>-1546.13</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>2708.013805</v>
       </c>
       <c r="B14" s="1">
-        <v>0.752226</v>
+        <v>0.75222599999999995</v>
       </c>
       <c r="C14" s="1">
-        <v>899.832000</v>
+        <v>899.83199999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-196.327000</v>
+        <v>-196.327</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>2718.382145</v>
       </c>
       <c r="G14" s="1">
-        <v>0.755106</v>
+        <v>0.75510600000000005</v>
       </c>
       <c r="H14" s="1">
-        <v>917.099000</v>
+        <v>917.09900000000005</v>
       </c>
       <c r="I14" s="1">
-        <v>-166.724000</v>
+        <v>-166.72399999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>2728.776802</v>
+        <v>2728.7768019999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0.757994</v>
+        <v>0.75799399999999995</v>
       </c>
       <c r="M14" s="1">
-        <v>940.249000</v>
+        <v>940.24900000000002</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.194000</v>
+        <v>-119.194</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>2739.274628</v>
+        <v>2739.2746280000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.760910</v>
+        <v>0.76090999999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>947.122000</v>
+        <v>947.12199999999996</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.147000</v>
+        <v>-103.14700000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>2750.086422</v>
+        <v>2750.0864219999999</v>
       </c>
       <c r="V14" s="1">
-        <v>0.763913</v>
+        <v>0.76391299999999995</v>
       </c>
       <c r="W14" s="1">
-        <v>953.606000</v>
+        <v>953.60599999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.405700</v>
+        <v>-89.405699999999996</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>2760.623458</v>
       </c>
       <c r="AA14" s="1">
-        <v>0.766840</v>
+        <v>0.76683999999999997</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.738000</v>
+        <v>960.73800000000006</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.782500</v>
+        <v>-79.782499999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>2771.032474</v>
+        <v>2771.0324740000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>0.769731</v>
+        <v>0.76973100000000005</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.863000</v>
+        <v>965.86300000000006</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.215900</v>
+        <v>-79.215900000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>2781.546668</v>
       </c>
       <c r="AK14" s="1">
-        <v>0.772652</v>
+        <v>0.77265200000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.795000</v>
+        <v>973.79499999999996</v>
       </c>
       <c r="AM14" s="1">
-        <v>-86.575800</v>
+        <v>-86.575800000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>2792.001342</v>
       </c>
       <c r="AP14" s="1">
-        <v>0.775556</v>
+        <v>0.77555600000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.915000</v>
+        <v>982.91499999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.086000</v>
+        <v>-101.086</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>2802.709504</v>
+        <v>2802.7095039999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>0.778530</v>
+        <v>0.77853000000000006</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.244000</v>
+        <v>994.24400000000003</v>
       </c>
       <c r="AW14" s="1">
-        <v>-122.009000</v>
+        <v>-122.009</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>2813.446903</v>
       </c>
       <c r="AZ14" s="1">
-        <v>0.781513</v>
+        <v>0.78151300000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1003.740000</v>
+        <v>1003.74</v>
       </c>
       <c r="BB14" s="1">
-        <v>-140.233000</v>
+        <v>-140.233</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>2824.023557</v>
       </c>
       <c r="BE14" s="1">
-        <v>0.784451</v>
+        <v>0.78445100000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1048.140000</v>
+        <v>1048.1400000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-222.910000</v>
+        <v>-222.91</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>2834.457894</v>
+        <v>2834.4578940000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>0.787349</v>
+        <v>0.78734899999999997</v>
       </c>
       <c r="BK14" s="1">
-        <v>1125.640000</v>
+        <v>1125.6400000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-355.965000</v>
+        <v>-355.96499999999997</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>2845.550919</v>
+        <v>2845.5509189999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>0.790431</v>
+        <v>0.79043099999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1254.230000</v>
+        <v>1254.23</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-562.085000</v>
+        <v>-562.08500000000004</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>2856.062661</v>
+        <v>2856.0626609999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>0.793351</v>
+        <v>0.79335100000000003</v>
       </c>
       <c r="BU14" s="1">
-        <v>1398.820000</v>
+        <v>1398.82</v>
       </c>
       <c r="BV14" s="1">
-        <v>-781.897000</v>
+        <v>-781.89700000000005</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>2866.824827</v>
+        <v>2866.8248269999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>0.796340</v>
+        <v>0.79634000000000005</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1558.250000</v>
+        <v>1558.25</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1011.430000</v>
+        <v>-1011.43</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>2878.922747</v>
+        <v>2878.9227470000001</v>
       </c>
       <c r="CD14" s="1">
         <v>0.799701</v>
       </c>
       <c r="CE14" s="1">
-        <v>1960.320000</v>
+        <v>1960.32</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1544.350000</v>
+        <v>-1544.35</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>2708.355021</v>
+        <v>2708.3550209999999</v>
       </c>
       <c r="B15" s="1">
-        <v>0.752321</v>
+        <v>0.75232100000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>899.664000</v>
+        <v>899.66399999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-196.399000</v>
+        <v>-196.399</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>2718.728382</v>
+        <v>2718.7283819999998</v>
       </c>
       <c r="G15" s="1">
-        <v>0.755202</v>
+        <v>0.75520200000000004</v>
       </c>
       <c r="H15" s="1">
-        <v>917.271000</v>
+        <v>917.27099999999996</v>
       </c>
       <c r="I15" s="1">
-        <v>-166.765000</v>
+        <v>-166.76499999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>2729.418656</v>
+        <v>2729.4186559999998</v>
       </c>
       <c r="L15" s="1">
-        <v>0.758172</v>
+        <v>0.75817199999999996</v>
       </c>
       <c r="M15" s="1">
-        <v>940.122000</v>
+        <v>940.12199999999996</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.448000</v>
+        <v>-119.44799999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>2739.928355</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.761091</v>
+        <v>0.76109099999999996</v>
       </c>
       <c r="R15" s="1">
-        <v>947.119000</v>
+        <v>947.11900000000003</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.130000</v>
+        <v>-103.13</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>2750.465861</v>
+        <v>2750.4658610000001</v>
       </c>
       <c r="V15" s="1">
-        <v>0.764018</v>
+        <v>0.76401799999999997</v>
       </c>
       <c r="W15" s="1">
-        <v>953.550000</v>
+        <v>953.55</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.408800</v>
+        <v>-89.408799999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>2760.972615</v>
+        <v>2760.9726150000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>0.766937</v>
+        <v>0.76693699999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.926000</v>
+        <v>960.92600000000004</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.772100</v>
+        <v>-79.772099999999995</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>2771.378217</v>
+        <v>2771.3782169999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>0.769827</v>
+        <v>0.76982700000000004</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.826000</v>
+        <v>965.82600000000002</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.202000</v>
+        <v>-79.201999999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>2781.897339</v>
+        <v>2781.8973390000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>0.772749</v>
+        <v>0.77274900000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.826000</v>
+        <v>973.82600000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-86.596100</v>
+        <v>-86.596100000000007</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>2792.366397</v>
+        <v>2792.3663969999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>0.775657</v>
+        <v>0.77565700000000004</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.956000</v>
+        <v>982.95600000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.088000</v>
+        <v>-101.08799999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>2803.137055</v>
+        <v>2803.1370550000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>0.778649</v>
+        <v>0.77864900000000004</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.250000</v>
+        <v>994.25</v>
       </c>
       <c r="AW15" s="1">
-        <v>-122.033000</v>
+        <v>-122.033</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>2813.749953</v>
       </c>
       <c r="AZ15" s="1">
-        <v>0.781597</v>
+        <v>0.78159699999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1003.710000</v>
+        <v>1003.71</v>
       </c>
       <c r="BB15" s="1">
-        <v>-140.244000</v>
+        <v>-140.244</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>2824.342483</v>
+        <v>2824.3424829999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>0.784540</v>
+        <v>0.78454000000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1048.120000</v>
+        <v>1048.1199999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-222.889000</v>
+        <v>-222.88900000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>2834.846276</v>
+        <v>2834.8462760000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>0.787457</v>
+        <v>0.78745699999999996</v>
       </c>
       <c r="BK15" s="1">
-        <v>1125.640000</v>
+        <v>1125.6400000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-355.955000</v>
+        <v>-355.95499999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>2845.948344</v>
+        <v>2845.9483439999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>0.790541</v>
+        <v>0.79054100000000005</v>
       </c>
       <c r="BP15" s="1">
-        <v>1254.230000</v>
+        <v>1254.23</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-562.071000</v>
+        <v>-562.07100000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>2856.473817</v>
+        <v>2856.4738170000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>0.793465</v>
+        <v>0.79346499999999998</v>
       </c>
       <c r="BU15" s="1">
-        <v>1398.880000</v>
+        <v>1398.88</v>
       </c>
       <c r="BV15" s="1">
-        <v>-781.840000</v>
+        <v>-781.84</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>2867.271722</v>
       </c>
       <c r="BY15" s="1">
-        <v>0.796464</v>
+        <v>0.79646399999999995</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1558.130000</v>
+        <v>1558.13</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1011.400000</v>
+        <v>-1011.4</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>2879.443082</v>
+        <v>2879.4430819999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>0.799845</v>
+        <v>0.79984500000000003</v>
       </c>
       <c r="CE15" s="1">
-        <v>1958.940000</v>
+        <v>1958.94</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1544.950000</v>
+        <v>-1544.95</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>2708.703708</v>
       </c>
       <c r="B16" s="1">
-        <v>0.752418</v>
+        <v>0.75241800000000003</v>
       </c>
       <c r="C16" s="1">
-        <v>899.606000</v>
+        <v>899.60599999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-196.389000</v>
+        <v>-196.38900000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>2719.383598</v>
+        <v>2719.3835979999999</v>
       </c>
       <c r="G16" s="1">
-        <v>0.755384</v>
+        <v>0.75538400000000006</v>
       </c>
       <c r="H16" s="1">
-        <v>917.290000</v>
+        <v>917.29</v>
       </c>
       <c r="I16" s="1">
-        <v>-166.764000</v>
+        <v>-166.76400000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>2729.814434</v>
+        <v>2729.8144339999999</v>
       </c>
       <c r="L16" s="1">
-        <v>0.758282</v>
+        <v>0.75828200000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>940.188000</v>
+        <v>940.18799999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.293000</v>
+        <v>-119.29300000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>2740.319203</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.761200</v>
+        <v>0.76119999999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>947.067000</v>
+        <v>947.06700000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.145000</v>
+        <v>-103.145</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>2750.808597</v>
+        <v>2750.8085970000002</v>
       </c>
       <c r="V16" s="1">
-        <v>0.764113</v>
+        <v>0.76411300000000004</v>
       </c>
       <c r="W16" s="1">
-        <v>953.607000</v>
+        <v>953.60699999999997</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.465900</v>
+        <v>-89.465900000000005</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>2761.320807</v>
+        <v>2761.3208070000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>0.767034</v>
+        <v>0.76703399999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.861000</v>
+        <v>960.86099999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.696900</v>
+        <v>-79.696899999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>2771.723401</v>
+        <v>2771.7234010000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>0.769923</v>
+        <v>0.76992300000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.849000</v>
+        <v>965.84900000000005</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.203100</v>
+        <v>-79.203100000000006</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>2782.317948</v>
+        <v>2782.3179479999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>0.772866</v>
+        <v>0.77286600000000005</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.794000</v>
+        <v>973.79399999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-86.591700</v>
+        <v>-86.591700000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>2792.835614</v>
+        <v>2792.8356140000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>0.775788</v>
+        <v>0.77578800000000003</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.956000</v>
+        <v>982.95600000000002</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.086000</v>
+        <v>-101.086</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>2803.437630</v>
+        <v>2803.4376299999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>0.778733</v>
+        <v>0.77873300000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.226000</v>
+        <v>994.226</v>
       </c>
       <c r="AW16" s="1">
-        <v>-122.018000</v>
+        <v>-122.018</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>2814.110017</v>
       </c>
       <c r="AZ16" s="1">
-        <v>0.781697</v>
+        <v>0.78169699999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1003.730000</v>
+        <v>1003.73</v>
       </c>
       <c r="BB16" s="1">
-        <v>-140.248000</v>
+        <v>-140.24799999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>2824.698612</v>
+        <v>2824.6986120000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>0.784639</v>
+        <v>0.78463899999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1048.120000</v>
+        <v>1048.1199999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-222.919000</v>
+        <v>-222.91900000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>2835.222725</v>
+        <v>2835.2227250000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>0.787562</v>
+        <v>0.78756199999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1125.640000</v>
+        <v>1125.6400000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-355.937000</v>
+        <v>-355.93700000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>2846.368823</v>
+        <v>2846.3688229999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>0.790658</v>
+        <v>0.79065799999999997</v>
       </c>
       <c r="BP16" s="1">
-        <v>1254.230000</v>
+        <v>1254.23</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-562.050000</v>
+        <v>-562.04999999999995</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>2856.894952</v>
+        <v>2856.8949520000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>0.793582</v>
+        <v>0.79358200000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1398.860000</v>
+        <v>1398.86</v>
       </c>
       <c r="BV16" s="1">
-        <v>-781.845000</v>
+        <v>-781.84500000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>2867.691338</v>
+        <v>2867.6913380000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>0.796581</v>
+        <v>0.79658099999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1558.170000</v>
+        <v>1558.17</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1011.420000</v>
+        <v>-1011.42</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>2879.959881</v>
+        <v>2879.9598810000002</v>
       </c>
       <c r="CD16" s="1">
-        <v>0.799989</v>
+        <v>0.79998899999999995</v>
       </c>
       <c r="CE16" s="1">
-        <v>1959.320000</v>
+        <v>1959.32</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1546.160000</v>
+        <v>-1546.16</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>2709.383227</v>
+        <v>2709.3832269999998</v>
       </c>
       <c r="B17" s="1">
         <v>0.752606</v>
       </c>
       <c r="C17" s="1">
-        <v>899.719000</v>
+        <v>899.71900000000005</v>
       </c>
       <c r="D17" s="1">
-        <v>-196.522000</v>
+        <v>-196.52199999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>2719.762509</v>
+        <v>2719.7625090000001</v>
       </c>
       <c r="G17" s="1">
-        <v>0.755490</v>
+        <v>0.75548999999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>917.056000</v>
+        <v>917.05600000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-166.743000</v>
+        <v>-166.74299999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>2730.162625</v>
+        <v>2730.1626249999999</v>
       </c>
       <c r="L17" s="1">
-        <v>0.758379</v>
+        <v>0.75837900000000003</v>
       </c>
       <c r="M17" s="1">
-        <v>940.112000</v>
+        <v>940.11199999999997</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.407000</v>
+        <v>-119.407</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>2740.665410</v>
+        <v>2740.6654100000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.761296</v>
+        <v>0.76129599999999997</v>
       </c>
       <c r="R17" s="1">
-        <v>947.085000</v>
+        <v>947.08500000000004</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.125000</v>
+        <v>-103.125</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>2751.142932</v>
+        <v>2751.1429320000002</v>
       </c>
       <c r="V17" s="1">
-        <v>0.764206</v>
+        <v>0.76420600000000005</v>
       </c>
       <c r="W17" s="1">
-        <v>953.637000</v>
+        <v>953.63699999999994</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.389600</v>
+        <v>-89.389600000000002</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>2761.736950</v>
+        <v>2761.73695</v>
       </c>
       <c r="AA17" s="1">
-        <v>0.767149</v>
+        <v>0.76714899999999997</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.905000</v>
+        <v>960.90499999999997</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.826600</v>
+        <v>-79.826599999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>2772.121456</v>
+        <v>2772.1214559999999</v>
       </c>
       <c r="AF17" s="1">
         <v>0.770034</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.853000</v>
+        <v>965.85299999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.237000</v>
+        <v>-79.236999999999995</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>2782.597230</v>
+        <v>2782.5972299999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>0.772944</v>
+        <v>0.77294399999999996</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.787000</v>
+        <v>973.78700000000003</v>
       </c>
       <c r="AM17" s="1">
-        <v>-86.589900</v>
+        <v>-86.5899</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>2793.090589</v>
+        <v>2793.0905889999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>0.775858</v>
+        <v>0.77585800000000005</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.952000</v>
+        <v>982.952</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.077000</v>
+        <v>-101.077</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>2803.802199</v>
+        <v>2803.8021990000002</v>
       </c>
       <c r="AU17" s="1">
-        <v>0.778834</v>
+        <v>0.77883400000000003</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.233000</v>
+        <v>994.23299999999995</v>
       </c>
       <c r="AW17" s="1">
-        <v>-122.026000</v>
+        <v>-122.026</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>2814.466674</v>
+        <v>2814.4666739999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>0.781796</v>
+        <v>0.78179600000000005</v>
       </c>
       <c r="BA17" s="1">
-        <v>1003.720000</v>
+        <v>1003.72</v>
       </c>
       <c r="BB17" s="1">
-        <v>-140.270000</v>
+        <v>-140.27000000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>2825.065650</v>
+        <v>2825.06565</v>
       </c>
       <c r="BE17" s="1">
-        <v>0.784740</v>
+        <v>0.78473999999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1048.130000</v>
+        <v>1048.1300000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.883000</v>
+        <v>-222.88300000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>2835.974691</v>
+        <v>2835.9746909999999</v>
       </c>
       <c r="BJ17" s="1">
         <v>0.787771</v>
       </c>
       <c r="BK17" s="1">
-        <v>1125.660000</v>
+        <v>1125.6600000000001</v>
       </c>
       <c r="BL17" s="1">
-        <v>-355.958000</v>
+        <v>-355.95800000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>2846.767606</v>
+        <v>2846.7676059999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>0.790769</v>
+        <v>0.79076900000000006</v>
       </c>
       <c r="BP17" s="1">
-        <v>1254.210000</v>
+        <v>1254.21</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-562.046000</v>
+        <v>-562.04600000000005</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>2857.326440</v>
+        <v>2857.3264399999998</v>
       </c>
       <c r="BT17" s="1">
-        <v>0.793702</v>
+        <v>0.79370200000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>1398.960000</v>
+        <v>1398.96</v>
       </c>
       <c r="BV17" s="1">
-        <v>-781.870000</v>
+        <v>-781.87</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>2868.115913</v>
+        <v>2868.1159130000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>0.796699</v>
+        <v>0.79669900000000005</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1558.190000</v>
+        <v>1558.19</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1011.430000</v>
+        <v>-1011.43</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>2880.784264</v>
+        <v>2880.7842639999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>0.800218</v>
+        <v>0.80021799999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>1960.380000</v>
+        <v>1960.38</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1545.960000</v>
+        <v>-1545.96</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>2709.725467</v>
+        <v>2709.7254670000002</v>
       </c>
       <c r="B18" s="1">
-        <v>0.752702</v>
+        <v>0.75270199999999998</v>
       </c>
       <c r="C18" s="1">
-        <v>899.667000</v>
+        <v>899.66700000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>-196.462000</v>
+        <v>-196.46199999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>2720.108221</v>
       </c>
       <c r="G18" s="1">
-        <v>0.755586</v>
+        <v>0.75558599999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>917.231000</v>
+        <v>917.23099999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-166.721000</v>
+        <v>-166.721</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>2730.504367</v>
       </c>
       <c r="L18" s="1">
-        <v>0.758473</v>
+        <v>0.75847299999999995</v>
       </c>
       <c r="M18" s="1">
-        <v>940.109000</v>
+        <v>940.10900000000004</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.580000</v>
+        <v>-119.58</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>2741.015122</v>
+        <v>2741.0151219999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.761393</v>
+        <v>0.76139299999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>947.103000</v>
+        <v>947.10299999999995</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.083000</v>
+        <v>-103.083</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>2751.554083</v>
       </c>
       <c r="V18" s="1">
-        <v>0.764321</v>
+        <v>0.76432100000000003</v>
       </c>
       <c r="W18" s="1">
-        <v>953.537000</v>
+        <v>953.53700000000003</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.332800</v>
+        <v>-89.332800000000006</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>2762.037030</v>
+        <v>2762.03703</v>
       </c>
       <c r="AA18" s="1">
-        <v>0.767233</v>
+        <v>0.76723300000000005</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.898000</v>
+        <v>960.89800000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.798700</v>
+        <v>-79.798699999999997</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>2772.418328</v>
+        <v>2772.4183280000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.770116</v>
+        <v>0.77011600000000002</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.852000</v>
+        <v>965.85199999999998</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.271800</v>
+        <v>-79.271799999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>2782.946874</v>
+        <v>2782.9468740000002</v>
       </c>
       <c r="AK18" s="1">
-        <v>0.773041</v>
+        <v>0.77304099999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.791000</v>
+        <v>973.79100000000005</v>
       </c>
       <c r="AM18" s="1">
-        <v>-86.608000</v>
+        <v>-86.608000000000004</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>2793.443746</v>
+        <v>2793.4437459999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>0.775957</v>
+        <v>0.77595700000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.942000</v>
+        <v>982.94200000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.075000</v>
+        <v>-101.075</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>2804.165727</v>
+        <v>2804.1657270000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>0.778935</v>
+        <v>0.77893500000000004</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.216000</v>
+        <v>994.21600000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-122.025000</v>
+        <v>-122.02500000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>2815.186368</v>
+        <v>2815.1863680000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>0.781996</v>
+        <v>0.78199600000000002</v>
       </c>
       <c r="BA18" s="1">
-        <v>1003.730000</v>
+        <v>1003.73</v>
       </c>
       <c r="BB18" s="1">
-        <v>-140.244000</v>
+        <v>-140.244</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>2825.787826</v>
+        <v>2825.7878260000002</v>
       </c>
       <c r="BE18" s="1">
         <v>0.784941</v>
       </c>
       <c r="BF18" s="1">
-        <v>1048.110000</v>
+        <v>1048.1099999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.904000</v>
+        <v>-222.904</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>2836.351652</v>
+        <v>2836.3516519999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>0.787875</v>
+        <v>0.78787499999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1125.640000</v>
+        <v>1125.6400000000001</v>
       </c>
       <c r="BL18" s="1">
-        <v>-355.956000</v>
+        <v>-355.95600000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>2847.186731</v>
+        <v>2847.1867309999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>0.790885</v>
+        <v>0.79088499999999995</v>
       </c>
       <c r="BP18" s="1">
-        <v>1254.240000</v>
+        <v>1254.24</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-562.091000</v>
+        <v>-562.09100000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>2857.758456</v>
       </c>
       <c r="BT18" s="1">
-        <v>0.793822</v>
+        <v>0.79382200000000003</v>
       </c>
       <c r="BU18" s="1">
-        <v>1399.070000</v>
+        <v>1399.07</v>
       </c>
       <c r="BV18" s="1">
-        <v>-781.825000</v>
+        <v>-781.82500000000005</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>2868.866857</v>
       </c>
       <c r="BY18" s="1">
-        <v>0.796907</v>
+        <v>0.79690700000000003</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1558.190000</v>
+        <v>1558.19</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1011.460000</v>
+        <v>-1011.46</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>2880.997016</v>
+        <v>2880.9970159999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>0.800277</v>
+        <v>0.80027700000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>1959.690000</v>
+        <v>1959.69</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1544.820000</v>
+        <v>-1544.82</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>2710.066746</v>
       </c>
       <c r="B19" s="1">
-        <v>0.752796</v>
+        <v>0.75279600000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>899.724000</v>
+        <v>899.72400000000005</v>
       </c>
       <c r="D19" s="1">
-        <v>-196.341000</v>
+        <v>-196.34100000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>2720.453438</v>
       </c>
       <c r="G19" s="1">
-        <v>0.755682</v>
+        <v>0.75568199999999996</v>
       </c>
       <c r="H19" s="1">
-        <v>917.222000</v>
+        <v>917.22199999999998</v>
       </c>
       <c r="I19" s="1">
-        <v>-166.608000</v>
+        <v>-166.608</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>2730.926495</v>
+        <v>2730.9264950000002</v>
       </c>
       <c r="L19" s="1">
-        <v>0.758591</v>
+        <v>0.75859100000000002</v>
       </c>
       <c r="M19" s="1">
-        <v>940.019000</v>
+        <v>940.01900000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.302000</v>
+        <v>-119.30200000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>2741.429782</v>
+        <v>2741.4297820000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.761508</v>
+        <v>0.76150799999999996</v>
       </c>
       <c r="R19" s="1">
-        <v>947.109000</v>
+        <v>947.10900000000004</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.097000</v>
+        <v>-103.09699999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>2751.837301</v>
       </c>
       <c r="V19" s="1">
-        <v>0.764399</v>
+        <v>0.76439900000000005</v>
       </c>
       <c r="W19" s="1">
-        <v>953.585000</v>
+        <v>953.58500000000004</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.410100</v>
+        <v>-89.4101</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>2762.382742</v>
+        <v>2762.3827419999998</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.767329</v>
+        <v>0.76732900000000004</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.907000</v>
+        <v>960.90700000000004</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.868800</v>
+        <v>-79.868799999999993</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>2772.764503</v>
+        <v>2772.7645029999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.770212</v>
+        <v>0.77021200000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.867000</v>
+        <v>965.86699999999996</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.229100</v>
+        <v>-79.229100000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>2783.297578</v>
+        <v>2783.2975780000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.773138</v>
+        <v>0.77313799999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.791000</v>
+        <v>973.79100000000005</v>
       </c>
       <c r="AM19" s="1">
-        <v>-86.618200</v>
+        <v>-86.618200000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>2794.164395</v>
+        <v>2794.1643949999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.776157</v>
+        <v>0.77615699999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.947000</v>
+        <v>982.947</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.090000</v>
+        <v>-101.09</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>2804.904269</v>
+        <v>2804.9042690000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>0.779140</v>
+        <v>0.77914000000000005</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.233000</v>
+        <v>994.23299999999995</v>
       </c>
       <c r="AW19" s="1">
-        <v>-122.009000</v>
+        <v>-122.009</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>2815.544479</v>
+        <v>2815.5444790000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0.782096</v>
+        <v>0.78209600000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1003.750000</v>
+        <v>1003.75</v>
       </c>
       <c r="BB19" s="1">
-        <v>-140.266000</v>
+        <v>-140.26599999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>2826.199505</v>
       </c>
       <c r="BE19" s="1">
-        <v>0.785055</v>
+        <v>0.78505499999999995</v>
       </c>
       <c r="BF19" s="1">
-        <v>1048.120000</v>
+        <v>1048.1199999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.904000</v>
+        <v>-222.904</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>2836.724133</v>
+        <v>2836.7241330000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>0.787979</v>
+        <v>0.78797899999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1125.640000</v>
+        <v>1125.6400000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-355.971000</v>
+        <v>-355.971</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>2847.882117</v>
+        <v>2847.8821170000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.791078</v>
+        <v>0.79107799999999995</v>
       </c>
       <c r="BP19" s="1">
-        <v>1254.230000</v>
+        <v>1254.23</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-562.068000</v>
+        <v>-562.06799999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>2858.481128</v>
+        <v>2858.4811279999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>0.794023</v>
+        <v>0.79402300000000003</v>
       </c>
       <c r="BU19" s="1">
-        <v>1399.110000</v>
+        <v>1399.11</v>
       </c>
       <c r="BV19" s="1">
-        <v>-781.782000</v>
+        <v>-781.78200000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>2868.997304</v>
       </c>
       <c r="BY19" s="1">
-        <v>0.796944</v>
+        <v>0.79694399999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1558.100000</v>
+        <v>1558.1</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1011.460000</v>
+        <v>-1011.46</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>2881.509880</v>
+        <v>2881.5098800000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>0.800419</v>
+        <v>0.80041899999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1960.200000</v>
+        <v>1960.2</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1544.710000</v>
+        <v>-1544.71</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>2710.475946</v>
       </c>
       <c r="B20" s="1">
-        <v>0.752910</v>
+        <v>0.75290999999999997</v>
       </c>
       <c r="C20" s="1">
-        <v>899.594000</v>
+        <v>899.59400000000005</v>
       </c>
       <c r="D20" s="1">
-        <v>-196.521000</v>
+        <v>-196.52099999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>2720.861148</v>
       </c>
       <c r="G20" s="1">
-        <v>0.755795</v>
+        <v>0.75579499999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>917.088000</v>
+        <v>917.08799999999997</v>
       </c>
       <c r="I20" s="1">
-        <v>-166.875000</v>
+        <v>-166.875</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>2731.195824</v>
+        <v>2731.1958239999999</v>
       </c>
       <c r="L20" s="1">
-        <v>0.758666</v>
+        <v>0.75866599999999995</v>
       </c>
       <c r="M20" s="1">
-        <v>940.070000</v>
+        <v>940.07</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.367000</v>
+        <v>-119.367</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>2741.724369</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.761590</v>
+        <v>0.76158999999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>947.130000</v>
+        <v>947.13</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.149000</v>
+        <v>-103.149</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>2752.181523</v>
+        <v>2752.1815230000002</v>
       </c>
       <c r="V20" s="1">
-        <v>0.764495</v>
+        <v>0.76449500000000004</v>
       </c>
       <c r="W20" s="1">
-        <v>953.627000</v>
+        <v>953.62699999999995</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.434000</v>
+        <v>-89.433999999999997</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>2762.732916</v>
+        <v>2762.7329159999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.767426</v>
+        <v>0.76742600000000005</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.921000</v>
+        <v>960.92100000000005</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.936900</v>
+        <v>-79.936899999999994</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>2773.108727</v>
+        <v>2773.1087269999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.770308</v>
+        <v>0.77030799999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.852000</v>
+        <v>965.85199999999998</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.257900</v>
+        <v>-79.257900000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>2783.991449</v>
+        <v>2783.9914490000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.773331</v>
+        <v>0.77333099999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.795000</v>
+        <v>973.79499999999996</v>
       </c>
       <c r="AM20" s="1">
-        <v>-86.595100</v>
+        <v>-86.595100000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>2794.527963</v>
@@ -5227,1677 +5643,1678 @@
         <v>0.776258</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.962000</v>
+        <v>982.96199999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.084000</v>
+        <v>-101.084</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>2805.285351</v>
       </c>
       <c r="AU20" s="1">
-        <v>0.779246</v>
+        <v>0.77924599999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.229000</v>
+        <v>994.22900000000004</v>
       </c>
       <c r="AW20" s="1">
-        <v>-122.002000</v>
+        <v>-122.002</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>2815.899119</v>
+        <v>2815.8991190000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>0.782194</v>
+        <v>0.78219399999999994</v>
       </c>
       <c r="BA20" s="1">
-        <v>1003.710000</v>
+        <v>1003.71</v>
       </c>
       <c r="BB20" s="1">
-        <v>-140.250000</v>
+        <v>-140.25</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>2826.865136</v>
+        <v>2826.8651359999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>0.785240</v>
+        <v>0.78524000000000005</v>
       </c>
       <c r="BF20" s="1">
-        <v>1048.120000</v>
+        <v>1048.1199999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.898000</v>
+        <v>-222.898</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>2837.414050</v>
+        <v>2837.4140499999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>0.788171</v>
+        <v>0.78817099999999995</v>
       </c>
       <c r="BK20" s="1">
-        <v>1125.660000</v>
+        <v>1125.6600000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-355.953000</v>
+        <v>-355.95299999999997</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>2848.022980</v>
+        <v>2848.0229800000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>0.791117</v>
+        <v>0.79111699999999996</v>
       </c>
       <c r="BP20" s="1">
-        <v>1254.250000</v>
+        <v>1254.25</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-562.098000</v>
+        <v>-562.09799999999996</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>2858.598183</v>
+        <v>2858.5981830000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>0.794055</v>
+        <v>0.79405499999999996</v>
       </c>
       <c r="BU20" s="1">
-        <v>1399.240000</v>
+        <v>1399.24</v>
       </c>
       <c r="BV20" s="1">
-        <v>-781.852000</v>
+        <v>-781.85199999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>2869.438745</v>
+        <v>2869.4387449999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>0.797066</v>
+        <v>0.79706600000000005</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1558.030000</v>
+        <v>1558.03</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1011.360000</v>
+        <v>-1011.36</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>2882.068376</v>
+        <v>2882.0683760000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>0.800575</v>
+        <v>0.80057500000000004</v>
       </c>
       <c r="CE20" s="1">
-        <v>1960.910000</v>
+        <v>1960.91</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1545.890000</v>
+        <v>-1545.89</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>2710.767065</v>
       </c>
       <c r="B21" s="1">
-        <v>0.752991</v>
+        <v>0.75299099999999997</v>
       </c>
       <c r="C21" s="1">
-        <v>899.521000</v>
+        <v>899.52099999999996</v>
       </c>
       <c r="D21" s="1">
-        <v>-196.457000</v>
+        <v>-196.45699999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>2721.148332</v>
+        <v>2721.1483320000002</v>
       </c>
       <c r="G21" s="1">
-        <v>0.755875</v>
+        <v>0.75587499999999996</v>
       </c>
       <c r="H21" s="1">
-        <v>917.273000</v>
+        <v>917.27300000000002</v>
       </c>
       <c r="I21" s="1">
-        <v>-166.847000</v>
+        <v>-166.84700000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>2731.540510</v>
+        <v>2731.5405099999998</v>
       </c>
       <c r="L21" s="1">
-        <v>0.758761</v>
+        <v>0.75876100000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>940.064000</v>
+        <v>940.06399999999996</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.254000</v>
+        <v>-119.254</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>2742.069089</v>
+        <v>2742.0690890000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.761686</v>
+        <v>0.76168599999999997</v>
       </c>
       <c r="R21" s="1">
-        <v>947.121000</v>
+        <v>947.12099999999998</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.162000</v>
+        <v>-103.16200000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>2752.528722</v>
       </c>
       <c r="V21" s="1">
-        <v>0.764591</v>
+        <v>0.76459100000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>953.590000</v>
+        <v>953.59</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.409700</v>
+        <v>-89.409700000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>2763.303843</v>
+        <v>2763.3038430000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.767584</v>
+        <v>0.76758400000000004</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.891000</v>
+        <v>960.89099999999996</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.823500</v>
+        <v>-79.823499999999996</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>2773.796710</v>
+        <v>2773.7967100000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>0.770499</v>
+        <v>0.77049900000000004</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.892000</v>
+        <v>965.89200000000005</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.231500</v>
+        <v>-79.231499999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>2784.342616</v>
+        <v>2784.3426159999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>0.773429</v>
+        <v>0.77342900000000003</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.792000</v>
+        <v>973.79200000000003</v>
       </c>
       <c r="AM21" s="1">
-        <v>-86.600000</v>
+        <v>-86.6</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>2794.889050</v>
+        <v>2794.8890500000002</v>
       </c>
       <c r="AP21" s="1">
-        <v>0.776358</v>
+        <v>0.77635799999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.950000</v>
+        <v>982.95</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.086000</v>
+        <v>-101.086</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>2805.647804</v>
+        <v>2805.6478040000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>0.779347</v>
+        <v>0.77934700000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.224000</v>
+        <v>994.22400000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-122.011000</v>
+        <v>-122.011</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>2816.574142</v>
+        <v>2816.5741419999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>0.782382</v>
+        <v>0.78238200000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1003.740000</v>
+        <v>1003.74</v>
       </c>
       <c r="BB21" s="1">
-        <v>-140.262000</v>
+        <v>-140.262</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>2827.275360</v>
+        <v>2827.2753600000001</v>
       </c>
       <c r="BE21" s="1">
         <v>0.785354</v>
       </c>
       <c r="BF21" s="1">
-        <v>1048.130000</v>
+        <v>1048.1300000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.886000</v>
+        <v>-222.886</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>2837.851025</v>
+        <v>2837.8510249999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>0.788292</v>
+        <v>0.78829199999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1125.670000</v>
+        <v>1125.67</v>
       </c>
       <c r="BL21" s="1">
-        <v>-355.954000</v>
+        <v>-355.95400000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>2848.429204</v>
       </c>
       <c r="BO21" s="1">
-        <v>0.791230</v>
+        <v>0.79122999999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1254.210000</v>
+        <v>1254.21</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-562.130000</v>
+        <v>-562.13</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>2859.037143</v>
       </c>
       <c r="BT21" s="1">
-        <v>0.794177</v>
+        <v>0.79417700000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1399.200000</v>
+        <v>1399.2</v>
       </c>
       <c r="BV21" s="1">
-        <v>-781.890000</v>
+        <v>-781.89</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>2869.886135</v>
+        <v>2869.8861350000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>0.797191</v>
+        <v>0.79719099999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1558.180000</v>
+        <v>1558.18</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1011.470000</v>
+        <v>-1011.47</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>2882.595624</v>
       </c>
       <c r="CD21" s="1">
-        <v>0.800721</v>
+        <v>0.80072100000000002</v>
       </c>
       <c r="CE21" s="1">
-        <v>1960.130000</v>
+        <v>1960.13</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1544.830000</v>
+        <v>-1544.83</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>2711.109305</v>
+        <v>2711.1093049999999</v>
       </c>
       <c r="B22" s="1">
-        <v>0.753086</v>
+        <v>0.75308600000000003</v>
       </c>
       <c r="C22" s="1">
-        <v>899.742000</v>
+        <v>899.74199999999996</v>
       </c>
       <c r="D22" s="1">
-        <v>-196.195000</v>
+        <v>-196.19499999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>2721.493548</v>
+        <v>2721.4935479999999</v>
       </c>
       <c r="G22" s="1">
-        <v>0.755970</v>
+        <v>0.75597000000000003</v>
       </c>
       <c r="H22" s="1">
-        <v>917.179000</v>
+        <v>917.17899999999997</v>
       </c>
       <c r="I22" s="1">
-        <v>-166.646000</v>
+        <v>-166.64599999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>2731.881757</v>
+        <v>2731.8817570000001</v>
       </c>
       <c r="L22" s="1">
-        <v>0.758856</v>
+        <v>0.75885599999999998</v>
       </c>
       <c r="M22" s="1">
-        <v>940.056000</v>
+        <v>940.05600000000004</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.312000</v>
+        <v>-119.312</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>2742.882063</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.761912</v>
+        <v>0.76191200000000003</v>
       </c>
       <c r="R22" s="1">
-        <v>947.071000</v>
+        <v>947.07100000000003</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.131000</v>
+        <v>-103.131</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>2753.220641</v>
+        <v>2753.2206409999999</v>
       </c>
       <c r="V22" s="1">
-        <v>0.764784</v>
+        <v>0.76478400000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>953.601000</v>
+        <v>953.601</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.350400</v>
+        <v>-89.350399999999993</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>2763.662948</v>
+        <v>2763.6629480000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>0.767684</v>
+        <v>0.76768400000000003</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.803000</v>
+        <v>960.803</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.828800</v>
+        <v>-79.828800000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>2774.139942</v>
+        <v>2774.1399419999998</v>
       </c>
       <c r="AF22" s="1">
         <v>0.770594</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.861000</v>
+        <v>965.86099999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.263900</v>
+        <v>-79.263900000000007</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>2784.691304</v>
+        <v>2784.6913039999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>0.773525</v>
+        <v>0.77352500000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.800000</v>
+        <v>973.8</v>
       </c>
       <c r="AM22" s="1">
-        <v>-86.604900</v>
+        <v>-86.604900000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>2795.545289</v>
+        <v>2795.5452890000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>0.776540</v>
+        <v>0.77654000000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.946000</v>
+        <v>982.94600000000003</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.076000</v>
+        <v>-101.07599999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>2806.326299</v>
+        <v>2806.3262989999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>0.779535</v>
+        <v>0.77953499999999998</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.246000</v>
+        <v>994.24599999999998</v>
       </c>
       <c r="AW22" s="1">
-        <v>-122.007000</v>
+        <v>-122.00700000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>2817.012109</v>
+        <v>2817.0121089999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>0.782503</v>
+        <v>0.78250299999999995</v>
       </c>
       <c r="BA22" s="1">
-        <v>1003.720000</v>
+        <v>1003.72</v>
       </c>
       <c r="BB22" s="1">
-        <v>-140.255000</v>
+        <v>-140.255</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>2827.638895</v>
       </c>
       <c r="BE22" s="1">
-        <v>0.785455</v>
+        <v>0.78545500000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1048.140000</v>
+        <v>1048.1400000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.890000</v>
+        <v>-222.89</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>2838.225040</v>
+        <v>2838.2250399999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>0.788396</v>
+        <v>0.78839599999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1125.670000</v>
+        <v>1125.67</v>
       </c>
       <c r="BL22" s="1">
-        <v>-355.969000</v>
+        <v>-355.96899999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>2848.827491</v>
       </c>
       <c r="BO22" s="1">
-        <v>0.791341</v>
+        <v>0.79134099999999996</v>
       </c>
       <c r="BP22" s="1">
-        <v>1254.200000</v>
+        <v>1254.2</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-562.085000</v>
+        <v>-562.08500000000004</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>2859.616469</v>
+        <v>2859.6164690000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>0.794338</v>
+        <v>0.79433799999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1399.380000</v>
+        <v>1399.38</v>
       </c>
       <c r="BV22" s="1">
-        <v>-781.921000</v>
+        <v>-781.92100000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>2870.303803</v>
+        <v>2870.3038029999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>0.797307</v>
+        <v>0.79730699999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1558.190000</v>
+        <v>1558.19</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1011.380000</v>
+        <v>-1011.38</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>2883.112987</v>
       </c>
       <c r="CD22" s="1">
-        <v>0.800865</v>
+        <v>0.80086500000000005</v>
       </c>
       <c r="CE22" s="1">
-        <v>1958.980000</v>
+        <v>1958.98</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1545.760000</v>
+        <v>-1545.76</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>2711.449592</v>
+        <v>2711.4495919999999</v>
       </c>
       <c r="B23" s="1">
-        <v>0.753180</v>
+        <v>0.75317999999999996</v>
       </c>
       <c r="C23" s="1">
-        <v>899.652000</v>
+        <v>899.65200000000004</v>
       </c>
       <c r="D23" s="1">
-        <v>-196.514000</v>
+        <v>-196.51400000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>2721.837314</v>
+        <v>2721.8373139999999</v>
       </c>
       <c r="G23" s="1">
-        <v>0.756066</v>
+        <v>0.75606600000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>917.010000</v>
+        <v>917.01</v>
       </c>
       <c r="I23" s="1">
-        <v>-166.882000</v>
+        <v>-166.88200000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>2732.579133</v>
+        <v>2732.5791330000002</v>
       </c>
       <c r="L23" s="1">
-        <v>0.759050</v>
+        <v>0.75905</v>
       </c>
       <c r="M23" s="1">
-        <v>940.210000</v>
+        <v>940.21</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.288000</v>
+        <v>-119.288</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>2743.116639</v>
+        <v>2743.1166389999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.761977</v>
+        <v>0.76197700000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>947.069000</v>
+        <v>947.06899999999996</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.108000</v>
+        <v>-103.108</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>2753.562385</v>
+        <v>2753.5623850000002</v>
       </c>
       <c r="V23" s="1">
-        <v>0.764878</v>
+        <v>0.76487799999999995</v>
       </c>
       <c r="W23" s="1">
-        <v>953.664000</v>
+        <v>953.66399999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.473800</v>
+        <v>-89.473799999999997</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>2764.012596</v>
       </c>
       <c r="AA23" s="1">
-        <v>0.767781</v>
+        <v>0.76778100000000005</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.779000</v>
+        <v>960.779</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.911100</v>
+        <v>-79.911100000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>2774.484134</v>
+        <v>2774.4841339999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>0.770690</v>
+        <v>0.77068999999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.897000</v>
+        <v>965.89700000000005</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.262700</v>
+        <v>-79.262699999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>2785.345559</v>
+        <v>2785.3455589999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>0.773707</v>
+        <v>0.77370700000000003</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.805000</v>
+        <v>973.80499999999995</v>
       </c>
       <c r="AM23" s="1">
-        <v>-86.574900</v>
+        <v>-86.5749</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>2796.005545</v>
       </c>
       <c r="AP23" s="1">
-        <v>0.776668</v>
+        <v>0.77666800000000003</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.927000</v>
+        <v>982.92700000000002</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.087000</v>
+        <v>-101.087</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>2806.772204</v>
+        <v>2806.7722039999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>0.779659</v>
+        <v>0.77965899999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.233000</v>
+        <v>994.23299999999995</v>
       </c>
       <c r="AW23" s="1">
-        <v>-122.019000</v>
+        <v>-122.01900000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>2817.372243</v>
+        <v>2817.3722429999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>0.782603</v>
+        <v>0.78260300000000005</v>
       </c>
       <c r="BA23" s="1">
-        <v>1003.730000</v>
+        <v>1003.73</v>
       </c>
       <c r="BB23" s="1">
-        <v>-140.246000</v>
+        <v>-140.24600000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>2827.998495</v>
+        <v>2827.9984949999998</v>
       </c>
       <c r="BE23" s="1">
         <v>0.785555</v>
       </c>
       <c r="BF23" s="1">
-        <v>1048.120000</v>
+        <v>1048.1199999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.893000</v>
+        <v>-222.893</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>2838.600481</v>
+        <v>2838.6004809999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>0.788500</v>
+        <v>0.78849999999999998</v>
       </c>
       <c r="BK23" s="1">
-        <v>1125.630000</v>
+        <v>1125.6300000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-355.955000</v>
+        <v>-355.95499999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>2849.249587</v>
+        <v>2849.2495869999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>0.791458</v>
+        <v>0.79145799999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1254.200000</v>
+        <v>1254.2</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-562.104000</v>
+        <v>-562.10400000000004</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>2859.875381</v>
+        <v>2859.8753809999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>0.794410</v>
+        <v>0.79440999999999995</v>
       </c>
       <c r="BU23" s="1">
-        <v>1399.500000</v>
+        <v>1399.5</v>
       </c>
       <c r="BV23" s="1">
-        <v>-781.975000</v>
+        <v>-781.97500000000002</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>2870.728343</v>
+        <v>2870.7283430000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>0.797425</v>
+        <v>0.79742500000000005</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1558.210000</v>
+        <v>1558.21</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1011.440000</v>
+        <v>-1011.44</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>2883.633285</v>
+        <v>2883.6332849999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>0.801009</v>
+        <v>0.80100899999999997</v>
       </c>
       <c r="CE23" s="1">
-        <v>1959.970000</v>
+        <v>1959.97</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1546.660000</v>
+        <v>-1546.66</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>2712.131561</v>
+        <v>2712.1315610000001</v>
       </c>
       <c r="B24" s="1">
-        <v>0.753370</v>
+        <v>0.75336999999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>899.650000</v>
+        <v>899.65</v>
       </c>
       <c r="D24" s="1">
-        <v>-196.408000</v>
+        <v>-196.40799999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>2722.527707</v>
+        <v>2722.5277070000002</v>
       </c>
       <c r="G24" s="1">
-        <v>0.756258</v>
+        <v>0.75625799999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>917.292000</v>
+        <v>917.29200000000003</v>
       </c>
       <c r="I24" s="1">
-        <v>-166.622000</v>
+        <v>-166.62200000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>2732.925353</v>
+        <v>2732.9253530000001</v>
       </c>
       <c r="L24" s="1">
-        <v>0.759146</v>
+        <v>0.75914599999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>939.930000</v>
+        <v>939.93</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.319000</v>
+        <v>-119.319</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>2743.464867</v>
+        <v>2743.4648670000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.762074</v>
+        <v>0.76207400000000003</v>
       </c>
       <c r="R24" s="1">
-        <v>947.060000</v>
+        <v>947.06</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.105000</v>
+        <v>-103.105</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>2753.909121</v>
+        <v>2753.9091210000001</v>
       </c>
       <c r="V24" s="1">
-        <v>0.764975</v>
+        <v>0.76497499999999996</v>
       </c>
       <c r="W24" s="1">
-        <v>953.643000</v>
+        <v>953.64300000000003</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.383900</v>
+        <v>-89.383899999999997</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>2764.668308</v>
+        <v>2764.6683079999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.767963</v>
+        <v>0.76796299999999995</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.846000</v>
+        <v>960.846</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.801400</v>
+        <v>-79.801400000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>2775.154724</v>
       </c>
       <c r="AF24" s="1">
-        <v>0.770876</v>
+        <v>0.77087600000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.850000</v>
+        <v>965.85</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.246000</v>
+        <v>-79.245999999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>2785.737896</v>
+        <v>2785.7378960000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>0.773816</v>
+        <v>0.77381599999999995</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.809000</v>
+        <v>973.80899999999997</v>
       </c>
       <c r="AM24" s="1">
-        <v>-86.594700</v>
+        <v>-86.594700000000003</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>2796.365640</v>
+        <v>2796.36564</v>
       </c>
       <c r="AP24" s="1">
-        <v>0.776768</v>
+        <v>0.77676800000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.942000</v>
+        <v>982.94200000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.074000</v>
+        <v>-101.074</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>2807.134282</v>
       </c>
       <c r="AU24" s="1">
-        <v>0.779760</v>
+        <v>0.77976000000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.235000</v>
+        <v>994.23500000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-122.021000</v>
+        <v>-122.021</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>2817.732829</v>
       </c>
       <c r="AZ24" s="1">
-        <v>0.782704</v>
+        <v>0.78270399999999996</v>
       </c>
       <c r="BA24" s="1">
-        <v>1003.740000</v>
+        <v>1003.74</v>
       </c>
       <c r="BB24" s="1">
-        <v>-140.261000</v>
+        <v>-140.261</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>2828.413646</v>
       </c>
       <c r="BE24" s="1">
-        <v>0.785670</v>
+        <v>0.78566999999999998</v>
       </c>
       <c r="BF24" s="1">
-        <v>1048.120000</v>
+        <v>1048.1199999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.917000</v>
+        <v>-222.917</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>2839.017617</v>
       </c>
       <c r="BJ24" s="1">
-        <v>0.788616</v>
+        <v>0.78861599999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1125.660000</v>
+        <v>1125.6600000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-355.938000</v>
+        <v>-355.93799999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>2849.647874</v>
+        <v>2849.6478739999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>0.791569</v>
+        <v>0.79156899999999997</v>
       </c>
       <c r="BP24" s="1">
-        <v>1254.200000</v>
+        <v>1254.2</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-562.121000</v>
+        <v>-562.12099999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>2860.309380</v>
+        <v>2860.3093800000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>0.794530</v>
+        <v>0.79452999999999996</v>
       </c>
       <c r="BU24" s="1">
-        <v>1399.370000</v>
+        <v>1399.37</v>
       </c>
       <c r="BV24" s="1">
-        <v>-782.094000</v>
+        <v>-782.09400000000005</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>2871.178246</v>
+        <v>2871.1782459999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>0.797550</v>
+        <v>0.79754999999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1558.180000</v>
+        <v>1558.18</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1011.470000</v>
+        <v>-1011.47</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>2884.149092</v>
+        <v>2884.1490920000001</v>
       </c>
       <c r="CD24" s="1">
         <v>0.801153</v>
       </c>
       <c r="CE24" s="1">
-        <v>1959.270000</v>
+        <v>1959.27</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1546.430000</v>
+        <v>-1546.43</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>2712.476835</v>
+        <v>2712.4768349999999</v>
       </c>
       <c r="B25" s="1">
-        <v>0.753466</v>
+        <v>0.75346599999999997</v>
       </c>
       <c r="C25" s="1">
-        <v>899.797000</v>
+        <v>899.79700000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>-196.462000</v>
+        <v>-196.46199999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>2722.870937</v>
+        <v>2722.8709370000001</v>
       </c>
       <c r="G25" s="1">
-        <v>0.756353</v>
+        <v>0.75635300000000005</v>
       </c>
       <c r="H25" s="1">
-        <v>917.106000</v>
+        <v>917.10599999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-166.754000</v>
+        <v>-166.75399999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>2733.269100</v>
+        <v>2733.2691</v>
       </c>
       <c r="L25" s="1">
-        <v>0.759241</v>
+        <v>0.75924100000000005</v>
       </c>
       <c r="M25" s="1">
-        <v>939.965000</v>
+        <v>939.96500000000003</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.299000</v>
+        <v>-119.29900000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>2744.124509</v>
+        <v>2744.1245090000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.762257</v>
+        <v>0.76225699999999996</v>
       </c>
       <c r="R25" s="1">
-        <v>947.100000</v>
+        <v>947.1</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.107000</v>
+        <v>-103.107</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>2754.566816</v>
       </c>
       <c r="V25" s="1">
-        <v>0.765157</v>
+        <v>0.76515699999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>953.616000</v>
+        <v>953.61599999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.429900</v>
+        <v>-89.429900000000004</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>2765.054194</v>
+        <v>2765.0541939999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.768071</v>
+        <v>0.76807099999999995</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.828000</v>
+        <v>960.82799999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.834500</v>
+        <v>-79.834500000000006</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>2775.521117</v>
+        <v>2775.5211169999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>0.770978</v>
+        <v>0.77097800000000005</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.855000</v>
+        <v>965.85500000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.217100</v>
+        <v>-79.217100000000002</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>2786.086054</v>
+        <v>2786.0860539999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>0.773913</v>
+        <v>0.77391299999999996</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.794000</v>
+        <v>973.79399999999998</v>
       </c>
       <c r="AM25" s="1">
-        <v>-86.580200</v>
+        <v>-86.580200000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>2796.721273</v>
+        <v>2796.7212730000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>0.776867</v>
+        <v>0.77686699999999997</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.944000</v>
+        <v>982.94399999999996</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.059000</v>
+        <v>-101.059</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>2807.499338</v>
+        <v>2807.4993380000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>0.779861</v>
+        <v>0.77986100000000003</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.233000</v>
+        <v>994.23299999999995</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.991000</v>
+        <v>-121.991</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>2818.142491</v>
+        <v>2818.1424910000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>0.782817</v>
+        <v>0.78281699999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1003.750000</v>
+        <v>1003.75</v>
       </c>
       <c r="BB25" s="1">
-        <v>-140.241000</v>
+        <v>-140.24100000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>2828.724142</v>
       </c>
       <c r="BE25" s="1">
-        <v>0.785757</v>
+        <v>0.78575700000000004</v>
       </c>
       <c r="BF25" s="1">
-        <v>1048.130000</v>
+        <v>1048.1300000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.909000</v>
+        <v>-222.90899999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>2839.378703</v>
+        <v>2839.3787029999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>0.788716</v>
+        <v>0.78871599999999997</v>
       </c>
       <c r="BK25" s="1">
-        <v>1125.620000</v>
+        <v>1125.6199999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-355.972000</v>
+        <v>-355.97199999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>2850.067490</v>
+        <v>2850.0674899999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>0.791685</v>
+        <v>0.79168499999999997</v>
       </c>
       <c r="BP25" s="1">
-        <v>1254.220000</v>
+        <v>1254.22</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-562.066000</v>
+        <v>-562.06600000000003</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>2860.721587</v>
       </c>
       <c r="BT25" s="1">
-        <v>0.794645</v>
+        <v>0.79464500000000005</v>
       </c>
       <c r="BU25" s="1">
-        <v>1399.380000</v>
+        <v>1399.38</v>
       </c>
       <c r="BV25" s="1">
-        <v>-782.205000</v>
+        <v>-782.20500000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>2871.609272</v>
+        <v>2871.6092720000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>0.797669</v>
+        <v>0.79766899999999996</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1558.150000</v>
+        <v>1558.15</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1011.430000</v>
+        <v>-1011.43</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>2884.702163</v>
+        <v>2884.7021629999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>0.801306</v>
+        <v>0.80130599999999996</v>
       </c>
       <c r="CE25" s="1">
-        <v>1958.970000</v>
+        <v>1958.97</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1545.540000</v>
+        <v>-1545.54</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>2712.819015</v>
       </c>
       <c r="B26" s="1">
-        <v>0.753561</v>
+        <v>0.75356100000000004</v>
       </c>
       <c r="C26" s="1">
-        <v>899.587000</v>
+        <v>899.58699999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-196.404000</v>
+        <v>-196.404</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>2723.216153</v>
+        <v>2723.2161529999998</v>
       </c>
       <c r="G26" s="1">
-        <v>0.756449</v>
+        <v>0.75644900000000004</v>
       </c>
       <c r="H26" s="1">
-        <v>916.951000</v>
+        <v>916.95100000000002</v>
       </c>
       <c r="I26" s="1">
-        <v>-166.745000</v>
+        <v>-166.745</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>2733.925014</v>
+        <v>2733.9250139999999</v>
       </c>
       <c r="L26" s="1">
-        <v>0.759424</v>
+        <v>0.75942399999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>940.110000</v>
+        <v>940.11</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.279000</v>
+        <v>-119.279</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>2744.513870</v>
+        <v>2744.5138700000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.762365</v>
+        <v>0.76236499999999996</v>
       </c>
       <c r="R26" s="1">
-        <v>947.087000</v>
+        <v>947.08699999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.133000</v>
+        <v>-103.133</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>2754.939641</v>
+        <v>2754.9396409999999</v>
       </c>
       <c r="V26" s="1">
-        <v>0.765261</v>
+        <v>0.76526099999999997</v>
       </c>
       <c r="W26" s="1">
-        <v>953.641000</v>
+        <v>953.64099999999996</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.452700</v>
+        <v>-89.452699999999993</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>2765.404881</v>
+        <v>2765.4048809999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.768168</v>
+        <v>0.76816799999999996</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.954000</v>
+        <v>960.95399999999995</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.839900</v>
+        <v>-79.8399</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>2775.867018</v>
+        <v>2775.8670179999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>0.771074</v>
+        <v>0.77107400000000004</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.872000</v>
+        <v>965.87199999999996</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.253300</v>
+        <v>-79.253299999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>2786.435769</v>
+        <v>2786.4357690000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>0.774010</v>
+        <v>0.77400999999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.772000</v>
+        <v>973.77200000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-86.584900</v>
+        <v>-86.584900000000005</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>2797.139437</v>
+        <v>2797.1394369999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>0.776983</v>
+        <v>0.77698299999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.965000</v>
+        <v>982.96500000000003</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.082000</v>
+        <v>-101.08199999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>2807.908537</v>
+        <v>2807.9085369999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>0.779975</v>
+        <v>0.77997499999999997</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.240000</v>
+        <v>994.24</v>
       </c>
       <c r="AW26" s="1">
-        <v>-122.008000</v>
+        <v>-122.008</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>2818.445051</v>
+        <v>2818.4450510000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>0.782901</v>
+        <v>0.78290099999999996</v>
       </c>
       <c r="BA26" s="1">
-        <v>1003.720000</v>
+        <v>1003.72</v>
       </c>
       <c r="BB26" s="1">
-        <v>-140.244000</v>
+        <v>-140.244</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>2829.085725</v>
+        <v>2829.0857249999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>0.785857</v>
+        <v>0.78585700000000003</v>
       </c>
       <c r="BF26" s="1">
-        <v>1048.140000</v>
+        <v>1048.1400000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.919000</v>
+        <v>-222.91900000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>2839.756655</v>
+        <v>2839.7566550000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>0.788821</v>
+        <v>0.78882099999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1125.650000</v>
+        <v>1125.6500000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-355.978000</v>
+        <v>-355.97800000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>2850.461809</v>
+        <v>2850.4618089999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>0.791795</v>
+        <v>0.79179500000000003</v>
       </c>
       <c r="BP26" s="1">
-        <v>1254.270000</v>
+        <v>1254.27</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-562.108000</v>
+        <v>-562.10799999999995</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>2861.145667</v>
+        <v>2861.1456669999998</v>
       </c>
       <c r="BT26" s="1">
         <v>0.794763</v>
       </c>
       <c r="BU26" s="1">
-        <v>1399.480000</v>
+        <v>1399.48</v>
       </c>
       <c r="BV26" s="1">
-        <v>-782.160000</v>
+        <v>-782.16</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>2872.030372</v>
+        <v>2872.0303720000002</v>
       </c>
       <c r="BY26" s="1">
         <v>0.797786</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1558.220000</v>
+        <v>1558.22</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1011.370000</v>
+        <v>-1011.37</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>2885.232851</v>
+        <v>2885.2328510000002</v>
       </c>
       <c r="CD26" s="1">
         <v>0.801454</v>
       </c>
       <c r="CE26" s="1">
-        <v>1959.520000</v>
+        <v>1959.52</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1546.850000</v>
+        <v>-1546.85</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>